--- a/FORWARDED FOR PRINTING PURPOSE BASHR.xlsx
+++ b/FORWARDED FOR PRINTING PURPOSE BASHR.xlsx
@@ -10,7 +10,7 @@
     <sheet name="7TH" sheetId="2" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'7TH'!$A$1:$O$618</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'7TH'!$C$1:$C$618</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'7TH'!$A$1:$I$616</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'7TH'!$1:$1</definedName>
   </definedNames>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5459" uniqueCount="2359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5463" uniqueCount="2361">
   <si>
     <t>SR</t>
   </si>
@@ -7101,6 +7101,12 @@
   </si>
   <si>
     <t xml:space="preserve">V   </t>
+  </si>
+  <si>
+    <t>03154248074'</t>
+  </si>
+  <si>
+    <t>03126011674'</t>
   </si>
 </sst>
 </file>
@@ -7546,7 +7552,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -7554,11 +7560,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:O618"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
+      <selection pane="bottomLeft" activeCell="K594" sqref="K594"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7613,7 +7620,7 @@
       </c>
       <c r="L1" s="3"/>
     </row>
-    <row r="2" spans="1:15" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12">
         <v>1292</v>
       </c>
@@ -7658,7 +7665,7 @@
         <v>318500</v>
       </c>
     </row>
-    <row r="3" spans="1:15" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12">
         <v>1293</v>
       </c>
@@ -7699,7 +7706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:15" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="12">
         <v>1294</v>
       </c>
@@ -7742,7 +7749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="12">
         <v>1295</v>
       </c>
@@ -7787,7 +7794,7 @@
         <v>354250</v>
       </c>
     </row>
-    <row r="6" spans="1:15" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="12">
         <v>1296</v>
       </c>
@@ -7830,7 +7837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="12">
         <v>1297</v>
       </c>
@@ -7875,7 +7882,7 @@
         <v>88000</v>
       </c>
     </row>
-    <row r="8" spans="1:15" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="12">
         <v>1298</v>
       </c>
@@ -7920,7 +7927,7 @@
         <v>12000</v>
       </c>
     </row>
-    <row r="9" spans="1:15" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="12">
         <v>1299</v>
       </c>
@@ -7965,7 +7972,7 @@
         <v>4960</v>
       </c>
     </row>
-    <row r="10" spans="1:15" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12">
         <v>1300</v>
       </c>
@@ -8006,7 +8013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="12">
         <v>1301</v>
       </c>
@@ -8047,7 +8054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="12">
         <v>1302</v>
       </c>
@@ -8086,7 +8093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="12">
         <v>1303</v>
       </c>
@@ -8120,7 +8127,7 @@
       </c>
       <c r="L13" s="9"/>
     </row>
-    <row r="14" spans="1:15" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="12">
         <v>1304</v>
       </c>
@@ -8154,7 +8161,7 @@
       </c>
       <c r="L14" s="9"/>
     </row>
-    <row r="15" spans="1:15" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="12">
         <v>1305</v>
       </c>
@@ -8188,7 +8195,7 @@
       </c>
       <c r="L15" s="9"/>
     </row>
-    <row r="16" spans="1:15" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="12">
         <v>1306</v>
       </c>
@@ -8222,7 +8229,7 @@
       </c>
       <c r="L16" s="9"/>
     </row>
-    <row r="17" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="12">
         <v>1307</v>
       </c>
@@ -8256,7 +8263,7 @@
       </c>
       <c r="L17" s="9"/>
     </row>
-    <row r="18" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="12">
         <v>1308</v>
       </c>
@@ -8290,7 +8297,7 @@
       </c>
       <c r="L18" s="9"/>
     </row>
-    <row r="19" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12">
         <v>1309</v>
       </c>
@@ -8324,7 +8331,7 @@
       </c>
       <c r="L19" s="9"/>
     </row>
-    <row r="20" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="12">
         <v>1310</v>
       </c>
@@ -8358,7 +8365,7 @@
       </c>
       <c r="L20" s="9"/>
     </row>
-    <row r="21" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="12">
         <v>1311</v>
       </c>
@@ -8392,7 +8399,7 @@
       </c>
       <c r="L21" s="9"/>
     </row>
-    <row r="22" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12">
         <v>1312</v>
       </c>
@@ -8426,7 +8433,7 @@
       </c>
       <c r="L22" s="9"/>
     </row>
-    <row r="23" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="12">
         <v>1313</v>
       </c>
@@ -8460,7 +8467,7 @@
       </c>
       <c r="L23" s="9"/>
     </row>
-    <row r="24" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
         <v>1314</v>
       </c>
@@ -8494,7 +8501,7 @@
       </c>
       <c r="L24" s="9"/>
     </row>
-    <row r="25" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="12">
         <v>1315</v>
       </c>
@@ -8528,7 +8535,7 @@
       </c>
       <c r="L25" s="9"/>
     </row>
-    <row r="26" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
         <v>1316</v>
       </c>
@@ -8564,7 +8571,7 @@
       </c>
       <c r="L26" s="9"/>
     </row>
-    <row r="27" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
         <v>1317</v>
       </c>
@@ -8598,7 +8605,7 @@
       </c>
       <c r="L27" s="9"/>
     </row>
-    <row r="28" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
         <v>1318</v>
       </c>
@@ -8632,7 +8639,7 @@
       </c>
       <c r="L28" s="9"/>
     </row>
-    <row r="29" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="12">
         <v>1319</v>
       </c>
@@ -8666,7 +8673,7 @@
       </c>
       <c r="L29" s="9"/>
     </row>
-    <row r="30" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="12">
         <v>1320</v>
       </c>
@@ -8700,7 +8707,7 @@
       </c>
       <c r="L30" s="9"/>
     </row>
-    <row r="31" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12">
         <v>1321</v>
       </c>
@@ -8734,7 +8741,7 @@
       </c>
       <c r="L31" s="9"/>
     </row>
-    <row r="32" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="12">
         <v>1322</v>
       </c>
@@ -8768,7 +8775,7 @@
       </c>
       <c r="L32" s="9"/>
     </row>
-    <row r="33" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12">
         <v>1323</v>
       </c>
@@ -8802,7 +8809,7 @@
       </c>
       <c r="L33" s="9"/>
     </row>
-    <row r="34" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="12">
         <v>1324</v>
       </c>
@@ -8836,7 +8843,7 @@
       </c>
       <c r="L34" s="9"/>
     </row>
-    <row r="35" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="12">
         <v>1325</v>
       </c>
@@ -8870,7 +8877,7 @@
       </c>
       <c r="L35" s="9"/>
     </row>
-    <row r="36" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="12">
         <v>1326</v>
       </c>
@@ -8904,7 +8911,7 @@
       </c>
       <c r="L36" s="9"/>
     </row>
-    <row r="37" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="12">
         <v>1327</v>
       </c>
@@ -8938,7 +8945,7 @@
       </c>
       <c r="L37" s="9"/>
     </row>
-    <row r="38" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="12">
         <v>1328</v>
       </c>
@@ -8972,7 +8979,7 @@
       </c>
       <c r="L38" s="9"/>
     </row>
-    <row r="39" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="12">
         <v>1329</v>
       </c>
@@ -9006,7 +9013,7 @@
       </c>
       <c r="L39" s="9"/>
     </row>
-    <row r="40" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="12">
         <v>1330</v>
       </c>
@@ -9040,7 +9047,7 @@
       </c>
       <c r="L40" s="9"/>
     </row>
-    <row r="41" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="12">
         <v>1331</v>
       </c>
@@ -9074,7 +9081,7 @@
       </c>
       <c r="L41" s="9"/>
     </row>
-    <row r="42" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="12">
         <v>1332</v>
       </c>
@@ -9108,7 +9115,7 @@
       </c>
       <c r="L42" s="9"/>
     </row>
-    <row r="43" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="12">
         <v>1333</v>
       </c>
@@ -9142,7 +9149,7 @@
       </c>
       <c r="L43" s="9"/>
     </row>
-    <row r="44" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12">
         <v>1334</v>
       </c>
@@ -9176,7 +9183,7 @@
       </c>
       <c r="L44" s="9"/>
     </row>
-    <row r="45" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="12">
         <v>1335</v>
       </c>
@@ -9210,7 +9217,7 @@
       </c>
       <c r="L45" s="9"/>
     </row>
-    <row r="46" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="12">
         <v>1336</v>
       </c>
@@ -9244,7 +9251,7 @@
       </c>
       <c r="L46" s="9"/>
     </row>
-    <row r="47" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="12">
         <v>1337</v>
       </c>
@@ -9278,7 +9285,7 @@
       </c>
       <c r="L47" s="9"/>
     </row>
-    <row r="48" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="12">
         <v>1338</v>
       </c>
@@ -9312,7 +9319,7 @@
       </c>
       <c r="L48" s="9"/>
     </row>
-    <row r="49" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="12">
         <v>1339</v>
       </c>
@@ -9346,7 +9353,7 @@
       </c>
       <c r="L49" s="9"/>
     </row>
-    <row r="50" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="12">
         <v>1340</v>
       </c>
@@ -9380,7 +9387,7 @@
       </c>
       <c r="L50" s="9"/>
     </row>
-    <row r="51" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="12">
         <v>1341</v>
       </c>
@@ -9414,7 +9421,7 @@
       </c>
       <c r="L51" s="9"/>
     </row>
-    <row r="52" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="12">
         <v>1342</v>
       </c>
@@ -9448,7 +9455,7 @@
       </c>
       <c r="L52" s="9"/>
     </row>
-    <row r="53" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="12">
         <v>1343</v>
       </c>
@@ -9482,7 +9489,7 @@
       </c>
       <c r="L53" s="9"/>
     </row>
-    <row r="54" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="12">
         <v>1344</v>
       </c>
@@ -9516,7 +9523,7 @@
       </c>
       <c r="L54" s="9"/>
     </row>
-    <row r="55" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="12">
         <v>1345</v>
       </c>
@@ -9550,7 +9557,7 @@
       </c>
       <c r="L55" s="9"/>
     </row>
-    <row r="56" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="12">
         <v>1346</v>
       </c>
@@ -9584,7 +9591,7 @@
       </c>
       <c r="L56" s="9"/>
     </row>
-    <row r="57" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="12">
         <v>1347</v>
       </c>
@@ -9618,7 +9625,7 @@
       </c>
       <c r="L57" s="9"/>
     </row>
-    <row r="58" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="12">
         <v>1348</v>
       </c>
@@ -9652,7 +9659,7 @@
       </c>
       <c r="L58" s="9"/>
     </row>
-    <row r="59" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="12">
         <v>1349</v>
       </c>
@@ -9686,7 +9693,7 @@
       </c>
       <c r="L59" s="9"/>
     </row>
-    <row r="60" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="12">
         <v>1350</v>
       </c>
@@ -9720,7 +9727,7 @@
       </c>
       <c r="L60" s="9"/>
     </row>
-    <row r="61" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="12">
         <v>1351</v>
       </c>
@@ -9754,7 +9761,7 @@
       <c r="K61" s="15"/>
       <c r="L61" s="9"/>
     </row>
-    <row r="62" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="12">
         <v>1352</v>
       </c>
@@ -9788,7 +9795,7 @@
       </c>
       <c r="L62" s="9"/>
     </row>
-    <row r="63" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="12">
         <v>1353</v>
       </c>
@@ -9822,7 +9829,7 @@
       </c>
       <c r="L63" s="9"/>
     </row>
-    <row r="64" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="12">
         <v>1354</v>
       </c>
@@ -9856,7 +9863,7 @@
       </c>
       <c r="L64" s="9"/>
     </row>
-    <row r="65" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="12">
         <v>1355</v>
       </c>
@@ -9890,7 +9897,7 @@
       </c>
       <c r="L65" s="9"/>
     </row>
-    <row r="66" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="12">
         <v>1356</v>
       </c>
@@ -9924,7 +9931,7 @@
       </c>
       <c r="L66" s="9"/>
     </row>
-    <row r="67" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="12">
         <v>1357</v>
       </c>
@@ -9958,7 +9965,7 @@
       </c>
       <c r="L67" s="9"/>
     </row>
-    <row r="68" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="12">
         <v>1358</v>
       </c>
@@ -9992,7 +9999,7 @@
       </c>
       <c r="L68" s="9"/>
     </row>
-    <row r="69" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="12">
         <v>1359</v>
       </c>
@@ -10026,7 +10033,7 @@
       </c>
       <c r="L69" s="9"/>
     </row>
-    <row r="70" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="12">
         <v>1360</v>
       </c>
@@ -10060,7 +10067,7 @@
       </c>
       <c r="L70" s="9"/>
     </row>
-    <row r="71" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="12">
         <v>1361</v>
       </c>
@@ -10094,7 +10101,7 @@
       </c>
       <c r="L71" s="9"/>
     </row>
-    <row r="72" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="12">
         <v>1362</v>
       </c>
@@ -10128,7 +10135,7 @@
       </c>
       <c r="L72" s="9"/>
     </row>
-    <row r="73" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="12">
         <v>1363</v>
       </c>
@@ -10162,7 +10169,7 @@
       </c>
       <c r="L73" s="9"/>
     </row>
-    <row r="74" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="12">
         <v>1364</v>
       </c>
@@ -10196,7 +10203,7 @@
       </c>
       <c r="L74" s="9"/>
     </row>
-    <row r="75" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="12">
         <v>1365</v>
       </c>
@@ -10230,7 +10237,7 @@
       </c>
       <c r="L75" s="9"/>
     </row>
-    <row r="76" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="12">
         <v>1366</v>
       </c>
@@ -10266,7 +10273,7 @@
       </c>
       <c r="L76" s="9"/>
     </row>
-    <row r="77" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="12">
         <v>1367</v>
       </c>
@@ -10300,7 +10307,7 @@
       </c>
       <c r="L77" s="9"/>
     </row>
-    <row r="78" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="12">
         <v>1368</v>
       </c>
@@ -10334,7 +10341,7 @@
       </c>
       <c r="L78" s="9"/>
     </row>
-    <row r="79" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="12">
         <v>1369</v>
       </c>
@@ -10368,7 +10375,7 @@
       </c>
       <c r="L79" s="9"/>
     </row>
-    <row r="80" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="12">
         <v>1370</v>
       </c>
@@ -10402,7 +10409,7 @@
       </c>
       <c r="L80" s="9"/>
     </row>
-    <row r="81" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="12">
         <v>1371</v>
       </c>
@@ -10436,7 +10443,7 @@
       </c>
       <c r="L81" s="9"/>
     </row>
-    <row r="82" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="12">
         <v>1372</v>
       </c>
@@ -10470,7 +10477,7 @@
       </c>
       <c r="L82" s="9"/>
     </row>
-    <row r="83" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="12">
         <v>1373</v>
       </c>
@@ -10504,7 +10511,7 @@
       </c>
       <c r="L83" s="9"/>
     </row>
-    <row r="84" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="12">
         <v>1374</v>
       </c>
@@ -10538,7 +10545,7 @@
       </c>
       <c r="L84" s="9"/>
     </row>
-    <row r="85" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="12">
         <v>1375</v>
       </c>
@@ -10572,7 +10579,7 @@
       </c>
       <c r="L85" s="9"/>
     </row>
-    <row r="86" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="12">
         <v>1376</v>
       </c>
@@ -10606,7 +10613,7 @@
       </c>
       <c r="L86" s="9"/>
     </row>
-    <row r="87" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="12">
         <v>1377</v>
       </c>
@@ -10640,7 +10647,7 @@
       </c>
       <c r="L87" s="9"/>
     </row>
-    <row r="88" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="12">
         <v>1378</v>
       </c>
@@ -10674,7 +10681,7 @@
       </c>
       <c r="L88" s="9"/>
     </row>
-    <row r="89" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="12">
         <v>1379</v>
       </c>
@@ -10708,7 +10715,7 @@
       </c>
       <c r="L89" s="9"/>
     </row>
-    <row r="90" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="12">
         <v>1380</v>
       </c>
@@ -10742,7 +10749,7 @@
       </c>
       <c r="L90" s="9"/>
     </row>
-    <row r="91" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="12">
         <v>1381</v>
       </c>
@@ -10776,7 +10783,7 @@
       </c>
       <c r="L91" s="9"/>
     </row>
-    <row r="92" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="12">
         <v>1382</v>
       </c>
@@ -10810,7 +10817,7 @@
       </c>
       <c r="L92" s="9"/>
     </row>
-    <row r="93" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="12">
         <v>1383</v>
       </c>
@@ -10844,7 +10851,7 @@
       </c>
       <c r="L93" s="9"/>
     </row>
-    <row r="94" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="12">
         <v>1384</v>
       </c>
@@ -10878,7 +10885,7 @@
       </c>
       <c r="L94" s="9"/>
     </row>
-    <row r="95" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="12">
         <v>1385</v>
       </c>
@@ -10912,7 +10919,7 @@
       </c>
       <c r="L95" s="9"/>
     </row>
-    <row r="96" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="12">
         <v>1386</v>
       </c>
@@ -10946,7 +10953,7 @@
       </c>
       <c r="L96" s="9"/>
     </row>
-    <row r="97" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="12">
         <v>1387</v>
       </c>
@@ -10978,7 +10985,7 @@
       <c r="K97" s="15"/>
       <c r="L97" s="9"/>
     </row>
-    <row r="98" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="12">
         <v>1388</v>
       </c>
@@ -11012,7 +11019,7 @@
       </c>
       <c r="L98" s="9"/>
     </row>
-    <row r="99" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="12">
         <v>1389</v>
       </c>
@@ -11046,7 +11053,7 @@
       </c>
       <c r="L99" s="9"/>
     </row>
-    <row r="100" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="12">
         <v>1390</v>
       </c>
@@ -11080,7 +11087,7 @@
       </c>
       <c r="L100" s="9"/>
     </row>
-    <row r="101" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="12">
         <v>1391</v>
       </c>
@@ -11114,7 +11121,7 @@
       </c>
       <c r="L101" s="9"/>
     </row>
-    <row r="102" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="12">
         <v>1392</v>
       </c>
@@ -11148,7 +11155,7 @@
       </c>
       <c r="L102" s="9"/>
     </row>
-    <row r="103" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="12">
         <v>1393</v>
       </c>
@@ -11182,7 +11189,7 @@
       </c>
       <c r="L103" s="9"/>
     </row>
-    <row r="104" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="12">
         <v>1394</v>
       </c>
@@ -11216,7 +11223,7 @@
       </c>
       <c r="L104" s="9"/>
     </row>
-    <row r="105" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="12">
         <v>1395</v>
       </c>
@@ -11250,7 +11257,7 @@
       </c>
       <c r="L105" s="9"/>
     </row>
-    <row r="106" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="12">
         <v>1396</v>
       </c>
@@ -11284,7 +11291,7 @@
       </c>
       <c r="L106" s="9"/>
     </row>
-    <row r="107" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="12">
         <v>1397</v>
       </c>
@@ -11318,7 +11325,7 @@
       </c>
       <c r="L107" s="9"/>
     </row>
-    <row r="108" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="12">
         <v>1398</v>
       </c>
@@ -11346,7 +11353,7 @@
       <c r="K108" s="15"/>
       <c r="L108" s="9"/>
     </row>
-    <row r="109" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="12">
         <v>1399</v>
       </c>
@@ -11382,7 +11389,7 @@
       </c>
       <c r="L109" s="9"/>
     </row>
-    <row r="110" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="12">
         <v>1400</v>
       </c>
@@ -11418,7 +11425,7 @@
       </c>
       <c r="L110" s="9"/>
     </row>
-    <row r="111" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="12">
         <v>1401</v>
       </c>
@@ -11454,7 +11461,7 @@
       </c>
       <c r="L111" s="9"/>
     </row>
-    <row r="112" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="12">
         <v>1402</v>
       </c>
@@ -11490,7 +11497,7 @@
       </c>
       <c r="L112" s="9"/>
     </row>
-    <row r="113" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="12">
         <v>1403</v>
       </c>
@@ -11526,7 +11533,7 @@
       </c>
       <c r="L113" s="9"/>
     </row>
-    <row r="114" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="12">
         <v>1404</v>
       </c>
@@ -11562,7 +11569,7 @@
       </c>
       <c r="L114" s="9"/>
     </row>
-    <row r="115" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="12">
         <v>1405</v>
       </c>
@@ -11598,7 +11605,7 @@
       </c>
       <c r="L115" s="9"/>
     </row>
-    <row r="116" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="12">
         <v>1406</v>
       </c>
@@ -11634,7 +11641,7 @@
       </c>
       <c r="L116" s="9"/>
     </row>
-    <row r="117" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="12">
         <v>1407</v>
       </c>
@@ -11670,7 +11677,7 @@
       </c>
       <c r="L117" s="9"/>
     </row>
-    <row r="118" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="12">
         <v>1408</v>
       </c>
@@ -11706,7 +11713,7 @@
       </c>
       <c r="L118" s="9"/>
     </row>
-    <row r="119" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="12">
         <v>1409</v>
       </c>
@@ -11742,7 +11749,7 @@
       </c>
       <c r="L119" s="9"/>
     </row>
-    <row r="120" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="12">
         <v>1410</v>
       </c>
@@ -11776,7 +11783,7 @@
       </c>
       <c r="L120" s="9"/>
     </row>
-    <row r="121" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="12">
         <v>1411</v>
       </c>
@@ -11812,7 +11819,7 @@
       </c>
       <c r="L121" s="9"/>
     </row>
-    <row r="122" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="12">
         <v>1412</v>
       </c>
@@ -11848,7 +11855,7 @@
       </c>
       <c r="L122" s="9"/>
     </row>
-    <row r="123" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="12">
         <v>1413</v>
       </c>
@@ -11884,7 +11891,7 @@
       </c>
       <c r="L123" s="9"/>
     </row>
-    <row r="124" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="12">
         <v>1414</v>
       </c>
@@ -11920,7 +11927,7 @@
       </c>
       <c r="L124" s="9"/>
     </row>
-    <row r="125" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="12">
         <v>1415</v>
       </c>
@@ -11956,7 +11963,7 @@
       </c>
       <c r="L125" s="9"/>
     </row>
-    <row r="126" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="12">
         <v>1416</v>
       </c>
@@ -11992,7 +11999,7 @@
       </c>
       <c r="L126" s="9"/>
     </row>
-    <row r="127" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="12">
         <v>1417</v>
       </c>
@@ -12028,7 +12035,7 @@
       </c>
       <c r="L127" s="9"/>
     </row>
-    <row r="128" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="12">
         <v>1418</v>
       </c>
@@ -12064,7 +12071,7 @@
       </c>
       <c r="L128" s="9"/>
     </row>
-    <row r="129" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="12">
         <v>1419</v>
       </c>
@@ -12100,7 +12107,7 @@
       </c>
       <c r="L129" s="9"/>
     </row>
-    <row r="130" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="12">
         <v>1420</v>
       </c>
@@ -12136,7 +12143,7 @@
       </c>
       <c r="L130" s="9"/>
     </row>
-    <row r="131" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="12">
         <v>1421</v>
       </c>
@@ -12172,7 +12179,7 @@
       </c>
       <c r="L131" s="9"/>
     </row>
-    <row r="132" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="12">
         <v>1422</v>
       </c>
@@ -12208,7 +12215,7 @@
       </c>
       <c r="L132" s="9"/>
     </row>
-    <row r="133" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="12">
         <v>1423</v>
       </c>
@@ -12244,7 +12251,7 @@
       </c>
       <c r="L133" s="9"/>
     </row>
-    <row r="134" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="12">
         <v>1424</v>
       </c>
@@ -12280,7 +12287,7 @@
       </c>
       <c r="L134" s="9"/>
     </row>
-    <row r="135" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="12">
         <v>1425</v>
       </c>
@@ -12308,7 +12315,7 @@
       <c r="K135" s="15"/>
       <c r="L135" s="9"/>
     </row>
-    <row r="136" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="12">
         <v>1426</v>
       </c>
@@ -12344,7 +12351,7 @@
       </c>
       <c r="L136" s="9"/>
     </row>
-    <row r="137" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="12">
         <v>1427</v>
       </c>
@@ -12380,7 +12387,7 @@
       </c>
       <c r="L137" s="9"/>
     </row>
-    <row r="138" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="12">
         <v>1428</v>
       </c>
@@ -12416,7 +12423,7 @@
       </c>
       <c r="L138" s="9"/>
     </row>
-    <row r="139" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="12">
         <v>1429</v>
       </c>
@@ -12452,7 +12459,7 @@
       </c>
       <c r="L139" s="9"/>
     </row>
-    <row r="140" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="12">
         <v>1430</v>
       </c>
@@ -12488,7 +12495,7 @@
       </c>
       <c r="L140" s="9"/>
     </row>
-    <row r="141" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="12">
         <v>1431</v>
       </c>
@@ -12524,7 +12531,7 @@
       </c>
       <c r="L141" s="9"/>
     </row>
-    <row r="142" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="12">
         <v>1432</v>
       </c>
@@ -12560,7 +12567,7 @@
       </c>
       <c r="L142" s="9"/>
     </row>
-    <row r="143" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="12">
         <v>1433</v>
       </c>
@@ -12596,7 +12603,7 @@
       </c>
       <c r="L143" s="9"/>
     </row>
-    <row r="144" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="12">
         <v>1434</v>
       </c>
@@ -12632,7 +12639,7 @@
       </c>
       <c r="L144" s="9"/>
     </row>
-    <row r="145" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="12">
         <v>1435</v>
       </c>
@@ -12668,7 +12675,7 @@
       </c>
       <c r="L145" s="9"/>
     </row>
-    <row r="146" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="12">
         <v>1436</v>
       </c>
@@ -12704,7 +12711,7 @@
       </c>
       <c r="L146" s="9"/>
     </row>
-    <row r="147" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="12">
         <v>1437</v>
       </c>
@@ -12740,7 +12747,7 @@
       </c>
       <c r="L147" s="9"/>
     </row>
-    <row r="148" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="12">
         <v>1438</v>
       </c>
@@ -12774,7 +12781,7 @@
       <c r="K148" s="15"/>
       <c r="L148" s="9"/>
     </row>
-    <row r="149" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="12">
         <v>1439</v>
       </c>
@@ -12810,7 +12817,7 @@
       </c>
       <c r="L149" s="9"/>
     </row>
-    <row r="150" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="12">
         <v>1440</v>
       </c>
@@ -12846,7 +12853,7 @@
       </c>
       <c r="L150" s="9"/>
     </row>
-    <row r="151" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="12">
         <v>1441</v>
       </c>
@@ -12880,7 +12887,7 @@
       <c r="K151" s="15"/>
       <c r="L151" s="9"/>
     </row>
-    <row r="152" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="12">
         <v>1442</v>
       </c>
@@ -12916,7 +12923,7 @@
       </c>
       <c r="L152" s="9"/>
     </row>
-    <row r="153" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="12">
         <v>1443</v>
       </c>
@@ -12952,7 +12959,7 @@
       </c>
       <c r="L153" s="9"/>
     </row>
-    <row r="154" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="12">
         <v>1444</v>
       </c>
@@ -12988,7 +12995,7 @@
       </c>
       <c r="L154" s="9"/>
     </row>
-    <row r="155" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="12">
         <v>1445</v>
       </c>
@@ -13024,7 +13031,7 @@
       </c>
       <c r="L155" s="9"/>
     </row>
-    <row r="156" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="12">
         <v>1446</v>
       </c>
@@ -13060,7 +13067,7 @@
       </c>
       <c r="L156" s="9"/>
     </row>
-    <row r="157" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="12">
         <v>1447</v>
       </c>
@@ -13096,7 +13103,7 @@
       </c>
       <c r="L157" s="9"/>
     </row>
-    <row r="158" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="12">
         <v>1448</v>
       </c>
@@ -13132,7 +13139,7 @@
       </c>
       <c r="L158" s="9"/>
     </row>
-    <row r="159" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="12">
         <v>1449</v>
       </c>
@@ -13168,7 +13175,7 @@
       </c>
       <c r="L159" s="9"/>
     </row>
-    <row r="160" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="12">
         <v>1450</v>
       </c>
@@ -13204,7 +13211,7 @@
       </c>
       <c r="L160" s="9"/>
     </row>
-    <row r="161" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="12">
         <v>1451</v>
       </c>
@@ -13238,7 +13245,7 @@
       </c>
       <c r="L161" s="9"/>
     </row>
-    <row r="162" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="12">
         <v>1452</v>
       </c>
@@ -13272,7 +13279,7 @@
       </c>
       <c r="L162" s="9"/>
     </row>
-    <row r="163" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="12">
         <v>1453</v>
       </c>
@@ -13306,7 +13313,7 @@
       </c>
       <c r="L163" s="9"/>
     </row>
-    <row r="164" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="12">
         <v>1454</v>
       </c>
@@ -13340,7 +13347,7 @@
       </c>
       <c r="L164" s="9"/>
     </row>
-    <row r="165" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="12">
         <v>1455</v>
       </c>
@@ -13374,7 +13381,7 @@
       </c>
       <c r="L165" s="9"/>
     </row>
-    <row r="166" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="12">
         <v>1456</v>
       </c>
@@ -13408,7 +13415,7 @@
       </c>
       <c r="L166" s="9"/>
     </row>
-    <row r="167" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="12">
         <v>1457</v>
       </c>
@@ -13442,7 +13449,7 @@
       </c>
       <c r="L167" s="9"/>
     </row>
-    <row r="168" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="12">
         <v>1458</v>
       </c>
@@ -13476,7 +13483,7 @@
       </c>
       <c r="L168" s="9"/>
     </row>
-    <row r="169" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="12">
         <v>1459</v>
       </c>
@@ -13510,7 +13517,7 @@
       </c>
       <c r="L169" s="9"/>
     </row>
-    <row r="170" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="12">
         <v>1460</v>
       </c>
@@ -13544,7 +13551,7 @@
       </c>
       <c r="L170" s="9"/>
     </row>
-    <row r="171" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="12">
         <v>1461</v>
       </c>
@@ -13578,7 +13585,7 @@
       </c>
       <c r="L171" s="9"/>
     </row>
-    <row r="172" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="12">
         <v>1462</v>
       </c>
@@ -13612,7 +13619,7 @@
       </c>
       <c r="L172" s="9"/>
     </row>
-    <row r="173" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="12">
         <v>1463</v>
       </c>
@@ -13646,7 +13653,7 @@
       </c>
       <c r="L173" s="9"/>
     </row>
-    <row r="174" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="12">
         <v>1464</v>
       </c>
@@ -13680,7 +13687,7 @@
       </c>
       <c r="L174" s="9"/>
     </row>
-    <row r="175" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="12">
         <v>1465</v>
       </c>
@@ -13714,7 +13721,7 @@
       </c>
       <c r="L175" s="9"/>
     </row>
-    <row r="176" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="12">
         <v>1466</v>
       </c>
@@ -13748,7 +13755,7 @@
       </c>
       <c r="L176" s="9"/>
     </row>
-    <row r="177" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="12">
         <v>1467</v>
       </c>
@@ -13782,7 +13789,7 @@
       </c>
       <c r="L177" s="9"/>
     </row>
-    <row r="178" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="12">
         <v>1468</v>
       </c>
@@ -13816,7 +13823,7 @@
       </c>
       <c r="L178" s="9"/>
     </row>
-    <row r="179" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="12">
         <v>1469</v>
       </c>
@@ -13850,7 +13857,7 @@
       </c>
       <c r="L179" s="9"/>
     </row>
-    <row r="180" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="12">
         <v>1470</v>
       </c>
@@ -13884,7 +13891,7 @@
       </c>
       <c r="L180" s="9"/>
     </row>
-    <row r="181" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="12">
         <v>1471</v>
       </c>
@@ -13918,7 +13925,7 @@
       </c>
       <c r="L181" s="9"/>
     </row>
-    <row r="182" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="12">
         <v>1472</v>
       </c>
@@ -13952,7 +13959,7 @@
       </c>
       <c r="L182" s="9"/>
     </row>
-    <row r="183" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="12">
         <v>1473</v>
       </c>
@@ -13986,7 +13993,7 @@
       </c>
       <c r="L183" s="9"/>
     </row>
-    <row r="184" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="12">
         <v>1474</v>
       </c>
@@ -14020,7 +14027,7 @@
       </c>
       <c r="L184" s="9"/>
     </row>
-    <row r="185" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="12">
         <v>1475</v>
       </c>
@@ -14054,7 +14061,7 @@
       </c>
       <c r="L185" s="9"/>
     </row>
-    <row r="186" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="12">
         <v>1476</v>
       </c>
@@ -14082,7 +14089,7 @@
       <c r="K186" s="15"/>
       <c r="L186" s="9"/>
     </row>
-    <row r="187" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="12">
         <v>1477</v>
       </c>
@@ -14116,7 +14123,7 @@
       </c>
       <c r="L187" s="9"/>
     </row>
-    <row r="188" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="12">
         <v>1478</v>
       </c>
@@ -14150,7 +14157,7 @@
       </c>
       <c r="L188" s="9"/>
     </row>
-    <row r="189" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="12">
         <v>1479</v>
       </c>
@@ -14184,7 +14191,7 @@
       </c>
       <c r="L189" s="9"/>
     </row>
-    <row r="190" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="12">
         <v>1480</v>
       </c>
@@ -14218,7 +14225,7 @@
       </c>
       <c r="L190" s="9"/>
     </row>
-    <row r="191" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="12">
         <v>1481</v>
       </c>
@@ -14252,7 +14259,7 @@
       </c>
       <c r="L191" s="9"/>
     </row>
-    <row r="192" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="12">
         <v>1482</v>
       </c>
@@ -14286,7 +14293,7 @@
       </c>
       <c r="L192" s="9"/>
     </row>
-    <row r="193" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="12">
         <v>1483</v>
       </c>
@@ -14320,7 +14327,7 @@
       </c>
       <c r="L193" s="9"/>
     </row>
-    <row r="194" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="12">
         <v>1484</v>
       </c>
@@ -14354,7 +14361,7 @@
       </c>
       <c r="L194" s="9"/>
     </row>
-    <row r="195" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="12">
         <v>1485</v>
       </c>
@@ -14388,7 +14395,7 @@
       </c>
       <c r="L195" s="9"/>
     </row>
-    <row r="196" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="12">
         <v>1486</v>
       </c>
@@ -14422,7 +14429,7 @@
       </c>
       <c r="L196" s="9"/>
     </row>
-    <row r="197" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="12">
         <v>1487</v>
       </c>
@@ -14456,7 +14463,7 @@
       </c>
       <c r="L197" s="9"/>
     </row>
-    <row r="198" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="12">
         <v>1488</v>
       </c>
@@ -14484,7 +14491,7 @@
       <c r="K198" s="15"/>
       <c r="L198" s="9"/>
     </row>
-    <row r="199" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="12">
         <v>1489</v>
       </c>
@@ -14520,7 +14527,7 @@
       </c>
       <c r="L199" s="9"/>
     </row>
-    <row r="200" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="12">
         <v>1490</v>
       </c>
@@ -14554,7 +14561,7 @@
       </c>
       <c r="L200" s="9"/>
     </row>
-    <row r="201" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="12">
         <v>1491</v>
       </c>
@@ -14590,7 +14597,7 @@
       </c>
       <c r="L201" s="9"/>
     </row>
-    <row r="202" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="12">
         <v>1492</v>
       </c>
@@ -14624,7 +14631,7 @@
       </c>
       <c r="L202" s="9"/>
     </row>
-    <row r="203" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="12">
         <v>1493</v>
       </c>
@@ -14656,7 +14663,7 @@
       <c r="K203" s="15"/>
       <c r="L203" s="9"/>
     </row>
-    <row r="204" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="12">
         <v>1494</v>
       </c>
@@ -14690,7 +14697,7 @@
       </c>
       <c r="L204" s="9"/>
     </row>
-    <row r="205" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="12">
         <v>1495</v>
       </c>
@@ -14724,7 +14731,7 @@
       </c>
       <c r="L205" s="9"/>
     </row>
-    <row r="206" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="12">
         <v>1496</v>
       </c>
@@ -14758,7 +14765,7 @@
       </c>
       <c r="L206" s="9"/>
     </row>
-    <row r="207" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="12">
         <v>1497</v>
       </c>
@@ -14792,7 +14799,7 @@
       </c>
       <c r="L207" s="9"/>
     </row>
-    <row r="208" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="12">
         <v>1498</v>
       </c>
@@ -14826,7 +14833,7 @@
       </c>
       <c r="L208" s="9"/>
     </row>
-    <row r="209" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="12">
         <v>1499</v>
       </c>
@@ -14860,7 +14867,7 @@
       </c>
       <c r="L209" s="9"/>
     </row>
-    <row r="210" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="12">
         <v>1500</v>
       </c>
@@ -14894,7 +14901,7 @@
       </c>
       <c r="L210" s="9"/>
     </row>
-    <row r="211" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="12">
         <v>1501</v>
       </c>
@@ -14928,7 +14935,7 @@
       </c>
       <c r="L211" s="9"/>
     </row>
-    <row r="212" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="12">
         <v>1502</v>
       </c>
@@ -14962,7 +14969,7 @@
       </c>
       <c r="L212" s="9"/>
     </row>
-    <row r="213" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="12">
         <v>1503</v>
       </c>
@@ -14996,7 +15003,7 @@
       </c>
       <c r="L213" s="9"/>
     </row>
-    <row r="214" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="12">
         <v>1504</v>
       </c>
@@ -15030,7 +15037,7 @@
       </c>
       <c r="L214" s="9"/>
     </row>
-    <row r="215" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="12">
         <v>1505</v>
       </c>
@@ -15064,7 +15071,7 @@
       </c>
       <c r="L215" s="9"/>
     </row>
-    <row r="216" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="12">
         <v>1506</v>
       </c>
@@ -15100,7 +15107,7 @@
       </c>
       <c r="L216" s="9"/>
     </row>
-    <row r="217" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="12">
         <v>1507</v>
       </c>
@@ -15134,7 +15141,7 @@
       </c>
       <c r="L217" s="9"/>
     </row>
-    <row r="218" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="12">
         <v>1508</v>
       </c>
@@ -15162,7 +15169,7 @@
       <c r="K218" s="15"/>
       <c r="L218" s="9"/>
     </row>
-    <row r="219" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="12">
         <v>1509</v>
       </c>
@@ -15198,7 +15205,7 @@
       </c>
       <c r="L219" s="9"/>
     </row>
-    <row r="220" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="12">
         <v>1510</v>
       </c>
@@ -15232,7 +15239,7 @@
       </c>
       <c r="L220" s="9"/>
     </row>
-    <row r="221" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="12">
         <v>1511</v>
       </c>
@@ -15266,7 +15273,7 @@
       </c>
       <c r="L221" s="9"/>
     </row>
-    <row r="222" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="12">
         <v>1512</v>
       </c>
@@ -15300,7 +15307,7 @@
       </c>
       <c r="L222" s="9"/>
     </row>
-    <row r="223" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="12">
         <v>1513</v>
       </c>
@@ -15334,7 +15341,7 @@
       </c>
       <c r="L223" s="9"/>
     </row>
-    <row r="224" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="12">
         <v>1514</v>
       </c>
@@ -15368,7 +15375,7 @@
       </c>
       <c r="L224" s="9"/>
     </row>
-    <row r="225" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="12">
         <v>1515</v>
       </c>
@@ -15404,7 +15411,7 @@
       </c>
       <c r="L225" s="9"/>
     </row>
-    <row r="226" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="12">
         <v>1516</v>
       </c>
@@ -15438,7 +15445,7 @@
       </c>
       <c r="L226" s="9"/>
     </row>
-    <row r="227" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="12">
         <v>1517</v>
       </c>
@@ -15472,7 +15479,7 @@
       </c>
       <c r="L227" s="9"/>
     </row>
-    <row r="228" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="12">
         <v>1518</v>
       </c>
@@ -15506,7 +15513,7 @@
       </c>
       <c r="L228" s="9"/>
     </row>
-    <row r="229" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="12">
         <v>1519</v>
       </c>
@@ -15542,7 +15549,7 @@
       </c>
       <c r="L229" s="9"/>
     </row>
-    <row r="230" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="12">
         <v>1520</v>
       </c>
@@ -15576,7 +15583,7 @@
       </c>
       <c r="L230" s="9"/>
     </row>
-    <row r="231" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="12">
         <v>1521</v>
       </c>
@@ -15610,7 +15617,7 @@
       </c>
       <c r="L231" s="9"/>
     </row>
-    <row r="232" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="12">
         <v>1522</v>
       </c>
@@ -15644,7 +15651,7 @@
       </c>
       <c r="L232" s="9"/>
     </row>
-    <row r="233" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="12">
         <v>1523</v>
       </c>
@@ -15678,7 +15685,7 @@
       </c>
       <c r="L233" s="9"/>
     </row>
-    <row r="234" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="12">
         <v>1524</v>
       </c>
@@ -15712,7 +15719,7 @@
       </c>
       <c r="L234" s="9"/>
     </row>
-    <row r="235" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="12">
         <v>1525</v>
       </c>
@@ -15746,7 +15753,7 @@
       </c>
       <c r="L235" s="9"/>
     </row>
-    <row r="236" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="12">
         <v>1526</v>
       </c>
@@ -15782,7 +15789,7 @@
       </c>
       <c r="L236" s="9"/>
     </row>
-    <row r="237" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="12">
         <v>1527</v>
       </c>
@@ -15816,7 +15823,7 @@
       </c>
       <c r="L237" s="9"/>
     </row>
-    <row r="238" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="12">
         <v>1528</v>
       </c>
@@ -15850,7 +15857,7 @@
       </c>
       <c r="L238" s="9"/>
     </row>
-    <row r="239" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="12">
         <v>1529</v>
       </c>
@@ -15884,7 +15891,7 @@
       </c>
       <c r="L239" s="9"/>
     </row>
-    <row r="240" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="12">
         <v>1530</v>
       </c>
@@ -15918,7 +15925,7 @@
       </c>
       <c r="L240" s="9"/>
     </row>
-    <row r="241" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="12">
         <v>1531</v>
       </c>
@@ -15954,7 +15961,7 @@
       </c>
       <c r="L241" s="9"/>
     </row>
-    <row r="242" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="12">
         <v>1532</v>
       </c>
@@ -15988,7 +15995,7 @@
       </c>
       <c r="L242" s="9"/>
     </row>
-    <row r="243" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="12">
         <v>1533</v>
       </c>
@@ -16022,7 +16029,7 @@
       <c r="K243" s="15"/>
       <c r="L243" s="9"/>
     </row>
-    <row r="244" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="12">
         <v>1534</v>
       </c>
@@ -16050,7 +16057,7 @@
       <c r="K244" s="15"/>
       <c r="L244" s="9"/>
     </row>
-    <row r="245" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="12">
         <v>1535</v>
       </c>
@@ -16084,7 +16091,7 @@
       </c>
       <c r="L245" s="9"/>
     </row>
-    <row r="246" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="12">
         <v>1536</v>
       </c>
@@ -16118,7 +16125,7 @@
       <c r="K246" s="15"/>
       <c r="L246" s="9"/>
     </row>
-    <row r="247" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="12">
         <v>1537</v>
       </c>
@@ -16152,7 +16159,7 @@
       </c>
       <c r="L247" s="9"/>
     </row>
-    <row r="248" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="12">
         <v>1538</v>
       </c>
@@ -16186,7 +16193,7 @@
       </c>
       <c r="L248" s="9"/>
     </row>
-    <row r="249" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="12">
         <v>1539</v>
       </c>
@@ -16218,7 +16225,7 @@
       <c r="K249" s="15"/>
       <c r="L249" s="9"/>
     </row>
-    <row r="250" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="12">
         <v>1540</v>
       </c>
@@ -16252,7 +16259,7 @@
       </c>
       <c r="L250" s="9"/>
     </row>
-    <row r="251" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="12">
         <v>1541</v>
       </c>
@@ -16286,7 +16293,7 @@
       </c>
       <c r="L251" s="9"/>
     </row>
-    <row r="252" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="12">
         <v>1542</v>
       </c>
@@ -16320,7 +16327,7 @@
       </c>
       <c r="L252" s="9"/>
     </row>
-    <row r="253" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="12">
         <v>1543</v>
       </c>
@@ -16354,7 +16361,7 @@
       </c>
       <c r="L253" s="9"/>
     </row>
-    <row r="254" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="12">
         <v>1544</v>
       </c>
@@ -16388,7 +16395,7 @@
       </c>
       <c r="L254" s="9"/>
     </row>
-    <row r="255" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="12">
         <v>1545</v>
       </c>
@@ -16424,7 +16431,7 @@
       </c>
       <c r="L255" s="9"/>
     </row>
-    <row r="256" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="12">
         <v>1546</v>
       </c>
@@ -16458,7 +16465,7 @@
       </c>
       <c r="L256" s="9"/>
     </row>
-    <row r="257" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="12">
         <v>1547</v>
       </c>
@@ -16492,7 +16499,7 @@
       </c>
       <c r="L257" s="9"/>
     </row>
-    <row r="258" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="12">
         <v>1548</v>
       </c>
@@ -16526,7 +16533,7 @@
       </c>
       <c r="L258" s="9"/>
     </row>
-    <row r="259" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="12">
         <v>1549</v>
       </c>
@@ -16560,7 +16567,7 @@
       </c>
       <c r="L259" s="9"/>
     </row>
-    <row r="260" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="12">
         <v>1550</v>
       </c>
@@ -16594,7 +16601,7 @@
       </c>
       <c r="L260" s="9"/>
     </row>
-    <row r="261" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="12">
         <v>1551</v>
       </c>
@@ -16628,7 +16635,7 @@
       </c>
       <c r="L261" s="9"/>
     </row>
-    <row r="262" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="12">
         <v>1552</v>
       </c>
@@ -16662,7 +16669,7 @@
       </c>
       <c r="L262" s="9"/>
     </row>
-    <row r="263" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="12">
         <v>1553</v>
       </c>
@@ -16696,7 +16703,7 @@
       </c>
       <c r="L263" s="9"/>
     </row>
-    <row r="264" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="12">
         <v>1554</v>
       </c>
@@ -16730,7 +16737,7 @@
       </c>
       <c r="L264" s="9"/>
     </row>
-    <row r="265" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="12">
         <v>1555</v>
       </c>
@@ -16764,7 +16771,7 @@
       </c>
       <c r="L265" s="9"/>
     </row>
-    <row r="266" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="12">
         <v>1556</v>
       </c>
@@ -16798,7 +16805,7 @@
       </c>
       <c r="L266" s="9"/>
     </row>
-    <row r="267" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="12">
         <v>1557</v>
       </c>
@@ -16832,7 +16839,7 @@
       </c>
       <c r="L267" s="9"/>
     </row>
-    <row r="268" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="12">
         <v>1558</v>
       </c>
@@ -16866,7 +16873,7 @@
       </c>
       <c r="L268" s="9"/>
     </row>
-    <row r="269" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="12">
         <v>1559</v>
       </c>
@@ -16902,7 +16909,7 @@
       </c>
       <c r="L269" s="9"/>
     </row>
-    <row r="270" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="12">
         <v>1560</v>
       </c>
@@ -16936,7 +16943,7 @@
       </c>
       <c r="L270" s="9"/>
     </row>
-    <row r="271" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="12">
         <v>1561</v>
       </c>
@@ -16972,7 +16979,7 @@
       </c>
       <c r="L271" s="9"/>
     </row>
-    <row r="272" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="12">
         <v>1562</v>
       </c>
@@ -17000,7 +17007,7 @@
       <c r="K272" s="15"/>
       <c r="L272" s="9"/>
     </row>
-    <row r="273" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="12">
         <v>1563</v>
       </c>
@@ -17034,7 +17041,7 @@
       </c>
       <c r="L273" s="9"/>
     </row>
-    <row r="274" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="12">
         <v>1564</v>
       </c>
@@ -17070,7 +17077,7 @@
       </c>
       <c r="L274" s="9"/>
     </row>
-    <row r="275" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="12">
         <v>1565</v>
       </c>
@@ -17104,7 +17111,7 @@
       </c>
       <c r="L275" s="9"/>
     </row>
-    <row r="276" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="12">
         <v>1566</v>
       </c>
@@ -17138,7 +17145,7 @@
       </c>
       <c r="L276" s="9"/>
     </row>
-    <row r="277" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="12">
         <v>1567</v>
       </c>
@@ -17172,7 +17179,7 @@
       </c>
       <c r="L277" s="9"/>
     </row>
-    <row r="278" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="12">
         <v>1568</v>
       </c>
@@ -17206,7 +17213,7 @@
       </c>
       <c r="L278" s="9"/>
     </row>
-    <row r="279" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="12">
         <v>1569</v>
       </c>
@@ -17240,7 +17247,7 @@
       </c>
       <c r="L279" s="9"/>
     </row>
-    <row r="280" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="12">
         <v>1570</v>
       </c>
@@ -17274,7 +17281,7 @@
       </c>
       <c r="L280" s="9"/>
     </row>
-    <row r="281" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="12">
         <v>1571</v>
       </c>
@@ -17308,7 +17315,7 @@
       </c>
       <c r="L281" s="9"/>
     </row>
-    <row r="282" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="12">
         <v>1572</v>
       </c>
@@ -17342,7 +17349,7 @@
       </c>
       <c r="L282" s="9"/>
     </row>
-    <row r="283" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="12">
         <v>1573</v>
       </c>
@@ -17376,7 +17383,7 @@
       </c>
       <c r="L283" s="9"/>
     </row>
-    <row r="284" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="12">
         <v>1574</v>
       </c>
@@ -17410,7 +17417,7 @@
       </c>
       <c r="L284" s="9"/>
     </row>
-    <row r="285" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="12">
         <v>1575</v>
       </c>
@@ -17444,7 +17451,7 @@
       </c>
       <c r="L285" s="9"/>
     </row>
-    <row r="286" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="12">
         <v>1576</v>
       </c>
@@ -17478,7 +17485,7 @@
       </c>
       <c r="L286" s="9"/>
     </row>
-    <row r="287" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="12">
         <v>1577</v>
       </c>
@@ -17512,7 +17519,7 @@
       </c>
       <c r="L287" s="9"/>
     </row>
-    <row r="288" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="12">
         <v>1578</v>
       </c>
@@ -17546,7 +17553,7 @@
       </c>
       <c r="L288" s="9"/>
     </row>
-    <row r="289" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="12">
         <v>1579</v>
       </c>
@@ -17580,7 +17587,7 @@
       </c>
       <c r="L289" s="9"/>
     </row>
-    <row r="290" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="12">
         <v>1580</v>
       </c>
@@ -17614,7 +17621,7 @@
       </c>
       <c r="L290" s="9"/>
     </row>
-    <row r="291" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="12">
         <v>1581</v>
       </c>
@@ -17648,7 +17655,7 @@
       </c>
       <c r="L291" s="9"/>
     </row>
-    <row r="292" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="12">
         <v>1582</v>
       </c>
@@ -17682,7 +17689,7 @@
       </c>
       <c r="L292" s="9"/>
     </row>
-    <row r="293" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="12">
         <v>1583</v>
       </c>
@@ -17716,7 +17723,7 @@
       </c>
       <c r="L293" s="9"/>
     </row>
-    <row r="294" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="12">
         <v>1584</v>
       </c>
@@ -17750,7 +17757,7 @@
       </c>
       <c r="L294" s="9"/>
     </row>
-    <row r="295" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="12">
         <v>1585</v>
       </c>
@@ -17786,7 +17793,7 @@
       </c>
       <c r="L295" s="9"/>
     </row>
-    <row r="296" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="12">
         <v>1586</v>
       </c>
@@ -17820,7 +17827,7 @@
       </c>
       <c r="L296" s="9"/>
     </row>
-    <row r="297" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="12">
         <v>1587</v>
       </c>
@@ -17854,7 +17861,7 @@
       </c>
       <c r="L297" s="9"/>
     </row>
-    <row r="298" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="12">
         <v>1588</v>
       </c>
@@ -17890,7 +17897,7 @@
       </c>
       <c r="L298" s="9"/>
     </row>
-    <row r="299" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="12">
         <v>1589</v>
       </c>
@@ -17924,7 +17931,7 @@
       </c>
       <c r="L299" s="9"/>
     </row>
-    <row r="300" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="12">
         <v>1590</v>
       </c>
@@ -17960,7 +17967,7 @@
       </c>
       <c r="L300" s="9"/>
     </row>
-    <row r="301" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="12">
         <v>1591</v>
       </c>
@@ -17994,7 +18001,7 @@
       </c>
       <c r="L301" s="9"/>
     </row>
-    <row r="302" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="12">
         <v>1592</v>
       </c>
@@ -18028,7 +18035,7 @@
       </c>
       <c r="L302" s="9"/>
     </row>
-    <row r="303" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="12">
         <v>1593</v>
       </c>
@@ -18062,7 +18069,7 @@
       </c>
       <c r="L303" s="9"/>
     </row>
-    <row r="304" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="12">
         <v>1594</v>
       </c>
@@ -18096,7 +18103,7 @@
       </c>
       <c r="L304" s="9"/>
     </row>
-    <row r="305" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="12">
         <v>1595</v>
       </c>
@@ -18130,7 +18137,7 @@
       </c>
       <c r="L305" s="9"/>
     </row>
-    <row r="306" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="12">
         <v>1596</v>
       </c>
@@ -18164,7 +18171,7 @@
       </c>
       <c r="L306" s="9"/>
     </row>
-    <row r="307" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="12">
         <v>1597</v>
       </c>
@@ -18198,7 +18205,7 @@
       </c>
       <c r="L307" s="9"/>
     </row>
-    <row r="308" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="12">
         <v>1598</v>
       </c>
@@ -18234,7 +18241,7 @@
       </c>
       <c r="L308" s="9"/>
     </row>
-    <row r="309" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="12">
         <v>1599</v>
       </c>
@@ -18268,7 +18275,7 @@
       </c>
       <c r="L309" s="9"/>
     </row>
-    <row r="310" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="12">
         <v>1600</v>
       </c>
@@ -18302,7 +18309,7 @@
       </c>
       <c r="L310" s="9"/>
     </row>
-    <row r="311" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="12">
         <v>1601</v>
       </c>
@@ -18336,7 +18343,7 @@
       </c>
       <c r="L311" s="9"/>
     </row>
-    <row r="312" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="12">
         <v>1602</v>
       </c>
@@ -18370,7 +18377,7 @@
       </c>
       <c r="L312" s="9"/>
     </row>
-    <row r="313" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="12">
         <v>1603</v>
       </c>
@@ -18404,7 +18411,7 @@
       </c>
       <c r="L313" s="9"/>
     </row>
-    <row r="314" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="12">
         <v>1604</v>
       </c>
@@ -18438,7 +18445,7 @@
       </c>
       <c r="L314" s="9"/>
     </row>
-    <row r="315" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="12">
         <v>1605</v>
       </c>
@@ -18472,7 +18479,7 @@
       </c>
       <c r="L315" s="9"/>
     </row>
-    <row r="316" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="12">
         <v>1606</v>
       </c>
@@ -18506,7 +18513,7 @@
       </c>
       <c r="L316" s="9"/>
     </row>
-    <row r="317" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="12">
         <v>1607</v>
       </c>
@@ -18540,7 +18547,7 @@
       </c>
       <c r="L317" s="9"/>
     </row>
-    <row r="318" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="12">
         <v>1608</v>
       </c>
@@ -18574,7 +18581,7 @@
       </c>
       <c r="L318" s="9"/>
     </row>
-    <row r="319" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="12">
         <v>1609</v>
       </c>
@@ -18606,7 +18613,7 @@
       <c r="K319" s="15"/>
       <c r="L319" s="9"/>
     </row>
-    <row r="320" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="12">
         <v>1610</v>
       </c>
@@ -18642,7 +18649,7 @@
       </c>
       <c r="L320" s="9"/>
     </row>
-    <row r="321" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="12">
         <v>1611</v>
       </c>
@@ -18670,7 +18677,7 @@
       <c r="K321" s="15"/>
       <c r="L321" s="9"/>
     </row>
-    <row r="322" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="12">
         <v>1612</v>
       </c>
@@ -18704,7 +18711,7 @@
       </c>
       <c r="L322" s="9"/>
     </row>
-    <row r="323" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="12">
         <v>1613</v>
       </c>
@@ -18738,7 +18745,7 @@
       </c>
       <c r="L323" s="9"/>
     </row>
-    <row r="324" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="12">
         <v>1614</v>
       </c>
@@ -18772,7 +18779,7 @@
       </c>
       <c r="L324" s="9"/>
     </row>
-    <row r="325" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="12">
         <v>1615</v>
       </c>
@@ -18806,7 +18813,7 @@
       </c>
       <c r="L325" s="9"/>
     </row>
-    <row r="326" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="12">
         <v>1616</v>
       </c>
@@ -18840,7 +18847,7 @@
       </c>
       <c r="L326" s="9"/>
     </row>
-    <row r="327" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="12">
         <v>1617</v>
       </c>
@@ -18874,7 +18881,7 @@
       </c>
       <c r="L327" s="9"/>
     </row>
-    <row r="328" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="12">
         <v>1618</v>
       </c>
@@ -18908,7 +18915,7 @@
       </c>
       <c r="L328" s="9"/>
     </row>
-    <row r="329" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="12">
         <v>1619</v>
       </c>
@@ -18942,7 +18949,7 @@
       </c>
       <c r="L329" s="9"/>
     </row>
-    <row r="330" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="12">
         <v>1620</v>
       </c>
@@ -18976,7 +18983,7 @@
       </c>
       <c r="L330" s="9"/>
     </row>
-    <row r="331" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="12">
         <v>1621</v>
       </c>
@@ -19010,7 +19017,7 @@
       </c>
       <c r="L331" s="9"/>
     </row>
-    <row r="332" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="12">
         <v>1622</v>
       </c>
@@ -19044,7 +19051,7 @@
       </c>
       <c r="L332" s="9"/>
     </row>
-    <row r="333" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="12">
         <v>1623</v>
       </c>
@@ -19078,7 +19085,7 @@
       </c>
       <c r="L333" s="9"/>
     </row>
-    <row r="334" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="12">
         <v>1624</v>
       </c>
@@ -19112,7 +19119,7 @@
       </c>
       <c r="L334" s="9"/>
     </row>
-    <row r="335" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="12">
         <v>1625</v>
       </c>
@@ -19146,7 +19153,7 @@
       </c>
       <c r="L335" s="9"/>
     </row>
-    <row r="336" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="12">
         <v>1626</v>
       </c>
@@ -19180,7 +19187,7 @@
       </c>
       <c r="L336" s="9"/>
     </row>
-    <row r="337" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="12">
         <v>1627</v>
       </c>
@@ -19216,7 +19223,7 @@
       </c>
       <c r="L337" s="9"/>
     </row>
-    <row r="338" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="12">
         <v>1628</v>
       </c>
@@ -19250,7 +19257,7 @@
       </c>
       <c r="L338" s="9"/>
     </row>
-    <row r="339" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="12">
         <v>1629</v>
       </c>
@@ -19284,7 +19291,7 @@
       </c>
       <c r="L339" s="9"/>
     </row>
-    <row r="340" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="12">
         <v>1630</v>
       </c>
@@ -19318,7 +19325,7 @@
       </c>
       <c r="L340" s="9"/>
     </row>
-    <row r="341" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="12">
         <v>1631</v>
       </c>
@@ -19352,7 +19359,7 @@
       </c>
       <c r="L341" s="9"/>
     </row>
-    <row r="342" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="12">
         <v>1632</v>
       </c>
@@ -19386,7 +19393,7 @@
       </c>
       <c r="L342" s="9"/>
     </row>
-    <row r="343" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="12">
         <v>1633</v>
       </c>
@@ -19420,7 +19427,7 @@
       </c>
       <c r="L343" s="9"/>
     </row>
-    <row r="344" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="12">
         <v>1634</v>
       </c>
@@ -19454,7 +19461,7 @@
       </c>
       <c r="L344" s="9"/>
     </row>
-    <row r="345" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="12">
         <v>1635</v>
       </c>
@@ -19488,7 +19495,7 @@
       </c>
       <c r="L345" s="9"/>
     </row>
-    <row r="346" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="12">
         <v>1636</v>
       </c>
@@ -19522,7 +19529,7 @@
       </c>
       <c r="L346" s="9"/>
     </row>
-    <row r="347" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="12">
         <v>1637</v>
       </c>
@@ -19556,7 +19563,7 @@
       </c>
       <c r="L347" s="9"/>
     </row>
-    <row r="348" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="12">
         <v>1638</v>
       </c>
@@ -19590,7 +19597,7 @@
       </c>
       <c r="L348" s="9"/>
     </row>
-    <row r="349" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="12">
         <v>1639</v>
       </c>
@@ -19624,7 +19631,7 @@
       </c>
       <c r="L349" s="9"/>
     </row>
-    <row r="350" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="12">
         <v>1640</v>
       </c>
@@ -19658,7 +19665,7 @@
       </c>
       <c r="L350" s="9"/>
     </row>
-    <row r="351" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="12">
         <v>1641</v>
       </c>
@@ -19692,7 +19699,7 @@
       </c>
       <c r="L351" s="9"/>
     </row>
-    <row r="352" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="12">
         <v>1642</v>
       </c>
@@ -19726,7 +19733,7 @@
       </c>
       <c r="L352" s="9"/>
     </row>
-    <row r="353" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="12">
         <v>1643</v>
       </c>
@@ -19760,7 +19767,7 @@
       </c>
       <c r="L353" s="9"/>
     </row>
-    <row r="354" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="12">
         <v>1644</v>
       </c>
@@ -19794,7 +19801,7 @@
       </c>
       <c r="L354" s="9"/>
     </row>
-    <row r="355" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="12">
         <v>1645</v>
       </c>
@@ -19828,7 +19835,7 @@
       </c>
       <c r="L355" s="9"/>
     </row>
-    <row r="356" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="12">
         <v>1646</v>
       </c>
@@ -19862,7 +19869,7 @@
       </c>
       <c r="L356" s="9"/>
     </row>
-    <row r="357" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="12">
         <v>1647</v>
       </c>
@@ -19896,7 +19903,7 @@
       </c>
       <c r="L357" s="9"/>
     </row>
-    <row r="358" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="12">
         <v>1648</v>
       </c>
@@ -19930,7 +19937,7 @@
       </c>
       <c r="L358" s="9"/>
     </row>
-    <row r="359" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="12">
         <v>1649</v>
       </c>
@@ -19958,7 +19965,7 @@
       <c r="K359" s="15"/>
       <c r="L359" s="9"/>
     </row>
-    <row r="360" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="12">
         <v>1650</v>
       </c>
@@ -19992,7 +19999,7 @@
       </c>
       <c r="L360" s="9"/>
     </row>
-    <row r="361" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="12">
         <v>1651</v>
       </c>
@@ -20026,7 +20033,7 @@
       </c>
       <c r="L361" s="9"/>
     </row>
-    <row r="362" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="12">
         <v>1652</v>
       </c>
@@ -20060,7 +20067,7 @@
       </c>
       <c r="L362" s="9"/>
     </row>
-    <row r="363" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="12">
         <v>1653</v>
       </c>
@@ -20094,7 +20101,7 @@
       </c>
       <c r="L363" s="9"/>
     </row>
-    <row r="364" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="12">
         <v>1654</v>
       </c>
@@ -20128,7 +20135,7 @@
       </c>
       <c r="L364" s="9"/>
     </row>
-    <row r="365" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="12">
         <v>1655</v>
       </c>
@@ -20162,7 +20169,7 @@
       </c>
       <c r="L365" s="9"/>
     </row>
-    <row r="366" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="12">
         <v>1656</v>
       </c>
@@ -20196,7 +20203,7 @@
       </c>
       <c r="L366" s="9"/>
     </row>
-    <row r="367" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="12">
         <v>1657</v>
       </c>
@@ -20230,7 +20237,7 @@
       </c>
       <c r="L367" s="9"/>
     </row>
-    <row r="368" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="12">
         <v>1658</v>
       </c>
@@ -20264,7 +20271,7 @@
       </c>
       <c r="L368" s="9"/>
     </row>
-    <row r="369" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="12">
         <v>1659</v>
       </c>
@@ -20298,7 +20305,7 @@
       </c>
       <c r="L369" s="9"/>
     </row>
-    <row r="370" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="12">
         <v>1660</v>
       </c>
@@ -20332,7 +20339,7 @@
       </c>
       <c r="L370" s="9"/>
     </row>
-    <row r="371" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="12">
         <v>1661</v>
       </c>
@@ -20366,7 +20373,7 @@
       </c>
       <c r="L371" s="9"/>
     </row>
-    <row r="372" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="12">
         <v>1662</v>
       </c>
@@ -20400,7 +20407,7 @@
       </c>
       <c r="L372" s="9"/>
     </row>
-    <row r="373" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="12">
         <v>1663</v>
       </c>
@@ -20434,7 +20441,7 @@
       </c>
       <c r="L373" s="9"/>
     </row>
-    <row r="374" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="12">
         <v>1664</v>
       </c>
@@ -20468,7 +20475,7 @@
       </c>
       <c r="L374" s="9"/>
     </row>
-    <row r="375" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="12">
         <v>1665</v>
       </c>
@@ -20502,7 +20509,7 @@
       </c>
       <c r="L375" s="9"/>
     </row>
-    <row r="376" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="12">
         <v>1666</v>
       </c>
@@ -20536,7 +20543,7 @@
       </c>
       <c r="L376" s="9"/>
     </row>
-    <row r="377" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="12">
         <v>1667</v>
       </c>
@@ -20570,7 +20577,7 @@
       </c>
       <c r="L377" s="9"/>
     </row>
-    <row r="378" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="12">
         <v>1668</v>
       </c>
@@ -20604,7 +20611,7 @@
       </c>
       <c r="L378" s="9"/>
     </row>
-    <row r="379" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="12">
         <v>1669</v>
       </c>
@@ -20638,7 +20645,7 @@
       </c>
       <c r="L379" s="9"/>
     </row>
-    <row r="380" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="12">
         <v>1670</v>
       </c>
@@ -20672,7 +20679,7 @@
       </c>
       <c r="L380" s="9"/>
     </row>
-    <row r="381" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="12">
         <v>1671</v>
       </c>
@@ -20704,7 +20711,7 @@
       <c r="K381" s="15"/>
       <c r="L381" s="9"/>
     </row>
-    <row r="382" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="12">
         <v>1672</v>
       </c>
@@ -20738,7 +20745,7 @@
       </c>
       <c r="L382" s="9"/>
     </row>
-    <row r="383" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="12">
         <v>1673</v>
       </c>
@@ -20772,7 +20779,7 @@
       </c>
       <c r="L383" s="9"/>
     </row>
-    <row r="384" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="12">
         <v>1674</v>
       </c>
@@ -20806,7 +20813,7 @@
       </c>
       <c r="L384" s="9"/>
     </row>
-    <row r="385" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="12">
         <v>1675</v>
       </c>
@@ -20840,7 +20847,7 @@
       </c>
       <c r="L385" s="9"/>
     </row>
-    <row r="386" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="12">
         <v>1676</v>
       </c>
@@ -20874,7 +20881,7 @@
       </c>
       <c r="L386" s="9"/>
     </row>
-    <row r="387" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="12">
         <v>1677</v>
       </c>
@@ -20908,7 +20915,7 @@
       </c>
       <c r="L387" s="9"/>
     </row>
-    <row r="388" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="12">
         <v>1678</v>
       </c>
@@ -20942,7 +20949,7 @@
       </c>
       <c r="L388" s="9"/>
     </row>
-    <row r="389" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="12">
         <v>1679</v>
       </c>
@@ -20976,7 +20983,7 @@
       </c>
       <c r="L389" s="9"/>
     </row>
-    <row r="390" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="12">
         <v>1680</v>
       </c>
@@ -21010,7 +21017,7 @@
       </c>
       <c r="L390" s="9"/>
     </row>
-    <row r="391" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="12">
         <v>1681</v>
       </c>
@@ -21044,7 +21051,7 @@
       </c>
       <c r="L391" s="9"/>
     </row>
-    <row r="392" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="12">
         <v>1682</v>
       </c>
@@ -21078,7 +21085,7 @@
       </c>
       <c r="L392" s="9"/>
     </row>
-    <row r="393" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="12">
         <v>1683</v>
       </c>
@@ -21112,7 +21119,7 @@
       </c>
       <c r="L393" s="9"/>
     </row>
-    <row r="394" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="12">
         <v>1684</v>
       </c>
@@ -21146,7 +21153,7 @@
       </c>
       <c r="L394" s="9"/>
     </row>
-    <row r="395" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="12">
         <v>1685</v>
       </c>
@@ -21180,7 +21187,7 @@
       </c>
       <c r="L395" s="9"/>
     </row>
-    <row r="396" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="12">
         <v>1686</v>
       </c>
@@ -21214,7 +21221,7 @@
       </c>
       <c r="L396" s="9"/>
     </row>
-    <row r="397" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="12">
         <v>1687</v>
       </c>
@@ -21248,7 +21255,7 @@
       </c>
       <c r="L397" s="9"/>
     </row>
-    <row r="398" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="12">
         <v>1688</v>
       </c>
@@ -21282,7 +21289,7 @@
       </c>
       <c r="L398" s="9"/>
     </row>
-    <row r="399" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="12">
         <v>1689</v>
       </c>
@@ -21316,7 +21323,7 @@
       </c>
       <c r="L399" s="9"/>
     </row>
-    <row r="400" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="12">
         <v>1690</v>
       </c>
@@ -21350,7 +21357,7 @@
       </c>
       <c r="L400" s="9"/>
     </row>
-    <row r="401" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="12">
         <v>1691</v>
       </c>
@@ -21384,7 +21391,7 @@
       </c>
       <c r="L401" s="9"/>
     </row>
-    <row r="402" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="12">
         <v>1692</v>
       </c>
@@ -21418,7 +21425,7 @@
       </c>
       <c r="L402" s="9"/>
     </row>
-    <row r="403" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="12">
         <v>1693</v>
       </c>
@@ -21452,7 +21459,7 @@
       </c>
       <c r="L403" s="9"/>
     </row>
-    <row r="404" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="12">
         <v>1694</v>
       </c>
@@ -21486,7 +21493,7 @@
       </c>
       <c r="L404" s="9"/>
     </row>
-    <row r="405" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="12">
         <v>1695</v>
       </c>
@@ -21520,7 +21527,7 @@
       </c>
       <c r="L405" s="9"/>
     </row>
-    <row r="406" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="12">
         <v>1696</v>
       </c>
@@ -21554,7 +21561,7 @@
       </c>
       <c r="L406" s="9"/>
     </row>
-    <row r="407" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="12">
         <v>1697</v>
       </c>
@@ -21588,7 +21595,7 @@
       </c>
       <c r="L407" s="9"/>
     </row>
-    <row r="408" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="12">
         <v>1698</v>
       </c>
@@ -21622,7 +21629,7 @@
       </c>
       <c r="L408" s="9"/>
     </row>
-    <row r="409" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="12">
         <v>1699</v>
       </c>
@@ -21656,7 +21663,7 @@
       </c>
       <c r="L409" s="9"/>
     </row>
-    <row r="410" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="12">
         <v>1700</v>
       </c>
@@ -21690,7 +21697,7 @@
       </c>
       <c r="L410" s="9"/>
     </row>
-    <row r="411" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="12">
         <v>1701</v>
       </c>
@@ -21724,7 +21731,7 @@
       </c>
       <c r="L411" s="9"/>
     </row>
-    <row r="412" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="12">
         <v>1702</v>
       </c>
@@ -21794,7 +21801,7 @@
       </c>
       <c r="L413" s="9"/>
     </row>
-    <row r="414" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="12">
         <v>1704</v>
       </c>
@@ -21830,7 +21837,7 @@
       </c>
       <c r="L414" s="9"/>
     </row>
-    <row r="415" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="12">
         <v>1705</v>
       </c>
@@ -21866,7 +21873,7 @@
       </c>
       <c r="L415" s="9"/>
     </row>
-    <row r="416" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="12">
         <v>1706</v>
       </c>
@@ -21902,7 +21909,7 @@
       </c>
       <c r="L416" s="9"/>
     </row>
-    <row r="417" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="12">
         <v>1707</v>
       </c>
@@ -21938,7 +21945,7 @@
       </c>
       <c r="L417" s="9"/>
     </row>
-    <row r="418" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="12">
         <v>1708</v>
       </c>
@@ -21974,7 +21981,7 @@
       </c>
       <c r="L418" s="9"/>
     </row>
-    <row r="419" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="12">
         <v>1709</v>
       </c>
@@ -22010,7 +22017,7 @@
       </c>
       <c r="L419" s="9"/>
     </row>
-    <row r="420" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="12">
         <v>1710</v>
       </c>
@@ -22046,7 +22053,7 @@
       </c>
       <c r="L420" s="9"/>
     </row>
-    <row r="421" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="12">
         <v>1711</v>
       </c>
@@ -22082,7 +22089,7 @@
       </c>
       <c r="L421" s="9"/>
     </row>
-    <row r="422" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="12">
         <v>1712</v>
       </c>
@@ -22118,7 +22125,7 @@
       </c>
       <c r="L422" s="9"/>
     </row>
-    <row r="423" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="12">
         <v>1713</v>
       </c>
@@ -22154,7 +22161,7 @@
       </c>
       <c r="L423" s="9"/>
     </row>
-    <row r="424" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="12">
         <v>1714</v>
       </c>
@@ -22190,7 +22197,7 @@
       </c>
       <c r="L424" s="9"/>
     </row>
-    <row r="425" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="12">
         <v>1715</v>
       </c>
@@ -22226,7 +22233,7 @@
       </c>
       <c r="L425" s="9"/>
     </row>
-    <row r="426" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="12">
         <v>1716</v>
       </c>
@@ -22262,7 +22269,7 @@
       </c>
       <c r="L426" s="9"/>
     </row>
-    <row r="427" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="12">
         <v>1717</v>
       </c>
@@ -22296,7 +22303,7 @@
       </c>
       <c r="L427" s="9"/>
     </row>
-    <row r="428" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="12">
         <v>1718</v>
       </c>
@@ -22332,7 +22339,7 @@
       </c>
       <c r="L428" s="9"/>
     </row>
-    <row r="429" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="12">
         <v>1719</v>
       </c>
@@ -22368,7 +22375,7 @@
       </c>
       <c r="L429" s="9"/>
     </row>
-    <row r="430" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="12">
         <v>1720</v>
       </c>
@@ -22402,7 +22409,7 @@
       </c>
       <c r="L430" s="9"/>
     </row>
-    <row r="431" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="12">
         <v>1721</v>
       </c>
@@ -22438,7 +22445,7 @@
       </c>
       <c r="L431" s="9"/>
     </row>
-    <row r="432" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="12">
         <v>1722</v>
       </c>
@@ -22474,7 +22481,7 @@
       </c>
       <c r="L432" s="9"/>
     </row>
-    <row r="433" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="12">
         <v>1723</v>
       </c>
@@ -22510,7 +22517,7 @@
       </c>
       <c r="L433" s="9"/>
     </row>
-    <row r="434" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="12">
         <v>1724</v>
       </c>
@@ -22546,7 +22553,7 @@
       </c>
       <c r="L434" s="9"/>
     </row>
-    <row r="435" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="12">
         <v>1725</v>
       </c>
@@ -22580,7 +22587,7 @@
       </c>
       <c r="L435" s="9"/>
     </row>
-    <row r="436" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="12">
         <v>1726</v>
       </c>
@@ -22614,7 +22621,7 @@
       </c>
       <c r="L436" s="9"/>
     </row>
-    <row r="437" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="12">
         <v>1727</v>
       </c>
@@ -22648,7 +22655,7 @@
       </c>
       <c r="L437" s="9"/>
     </row>
-    <row r="438" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="12">
         <v>1728</v>
       </c>
@@ -22682,7 +22689,7 @@
       </c>
       <c r="L438" s="9"/>
     </row>
-    <row r="439" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="12">
         <v>1729</v>
       </c>
@@ -22716,7 +22723,7 @@
       </c>
       <c r="L439" s="9"/>
     </row>
-    <row r="440" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="12">
         <v>1730</v>
       </c>
@@ -22750,7 +22757,7 @@
       </c>
       <c r="L440" s="9"/>
     </row>
-    <row r="441" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="12">
         <v>1731</v>
       </c>
@@ -22784,7 +22791,7 @@
       </c>
       <c r="L441" s="9"/>
     </row>
-    <row r="442" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="12">
         <v>1732</v>
       </c>
@@ -22818,7 +22825,7 @@
       </c>
       <c r="L442" s="9"/>
     </row>
-    <row r="443" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="12">
         <v>1733</v>
       </c>
@@ -22852,7 +22859,7 @@
       </c>
       <c r="L443" s="9"/>
     </row>
-    <row r="444" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="12">
         <v>1734</v>
       </c>
@@ -22886,7 +22893,7 @@
       </c>
       <c r="L444" s="9"/>
     </row>
-    <row r="445" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="12">
         <v>1735</v>
       </c>
@@ -22920,7 +22927,7 @@
       </c>
       <c r="L445" s="9"/>
     </row>
-    <row r="446" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="12">
         <v>1736</v>
       </c>
@@ -22954,7 +22961,7 @@
       </c>
       <c r="L446" s="9"/>
     </row>
-    <row r="447" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="12">
         <v>1737</v>
       </c>
@@ -22988,7 +22995,7 @@
       </c>
       <c r="L447" s="9"/>
     </row>
-    <row r="448" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="12">
         <v>1738</v>
       </c>
@@ -23022,7 +23029,7 @@
       </c>
       <c r="L448" s="9"/>
     </row>
-    <row r="449" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="12">
         <v>1739</v>
       </c>
@@ -23056,7 +23063,7 @@
       </c>
       <c r="L449" s="9"/>
     </row>
-    <row r="450" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="12">
         <v>1740</v>
       </c>
@@ -23090,7 +23097,7 @@
       </c>
       <c r="L450" s="9"/>
     </row>
-    <row r="451" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="12">
         <v>1741</v>
       </c>
@@ -23124,7 +23131,7 @@
       </c>
       <c r="L451" s="9"/>
     </row>
-    <row r="452" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="12">
         <v>1742</v>
       </c>
@@ -23158,7 +23165,7 @@
       </c>
       <c r="L452" s="9"/>
     </row>
-    <row r="453" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="12">
         <v>1743</v>
       </c>
@@ -23192,7 +23199,7 @@
       </c>
       <c r="L453" s="9"/>
     </row>
-    <row r="454" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="12">
         <v>1744</v>
       </c>
@@ -23226,7 +23233,7 @@
       </c>
       <c r="L454" s="9"/>
     </row>
-    <row r="455" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="12">
         <v>1745</v>
       </c>
@@ -23260,7 +23267,7 @@
       </c>
       <c r="L455" s="9"/>
     </row>
-    <row r="456" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="12">
         <v>1746</v>
       </c>
@@ -23294,7 +23301,7 @@
       </c>
       <c r="L456" s="9"/>
     </row>
-    <row r="457" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="12">
         <v>1747</v>
       </c>
@@ -23328,7 +23335,7 @@
       </c>
       <c r="L457" s="9"/>
     </row>
-    <row r="458" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="12">
         <v>1748</v>
       </c>
@@ -23362,7 +23369,7 @@
       </c>
       <c r="L458" s="9"/>
     </row>
-    <row r="459" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="12">
         <v>1749</v>
       </c>
@@ -23396,7 +23403,7 @@
       </c>
       <c r="L459" s="9"/>
     </row>
-    <row r="460" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="12">
         <v>1750</v>
       </c>
@@ -23430,7 +23437,7 @@
       </c>
       <c r="L460" s="9"/>
     </row>
-    <row r="461" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="12">
         <v>1751</v>
       </c>
@@ -23464,7 +23471,7 @@
       </c>
       <c r="L461" s="9"/>
     </row>
-    <row r="462" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="12">
         <v>1752</v>
       </c>
@@ -23498,7 +23505,7 @@
       </c>
       <c r="L462" s="9"/>
     </row>
-    <row r="463" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="12">
         <v>1753</v>
       </c>
@@ -23532,7 +23539,7 @@
       </c>
       <c r="L463" s="9"/>
     </row>
-    <row r="464" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="12">
         <v>1754</v>
       </c>
@@ -23566,7 +23573,7 @@
       </c>
       <c r="L464" s="9"/>
     </row>
-    <row r="465" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="12">
         <v>1755</v>
       </c>
@@ -23600,7 +23607,7 @@
       </c>
       <c r="L465" s="9"/>
     </row>
-    <row r="466" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="12">
         <v>1756</v>
       </c>
@@ -23634,7 +23641,7 @@
       </c>
       <c r="L466" s="9"/>
     </row>
-    <row r="467" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="12">
         <v>1757</v>
       </c>
@@ -23668,7 +23675,7 @@
       </c>
       <c r="L467" s="9"/>
     </row>
-    <row r="468" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="12">
         <v>1758</v>
       </c>
@@ -23702,7 +23709,7 @@
       </c>
       <c r="L468" s="9"/>
     </row>
-    <row r="469" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="12">
         <v>1759</v>
       </c>
@@ -23736,7 +23743,7 @@
       </c>
       <c r="L469" s="9"/>
     </row>
-    <row r="470" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="12">
         <v>1760</v>
       </c>
@@ -23770,7 +23777,7 @@
       </c>
       <c r="L470" s="9"/>
     </row>
-    <row r="471" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="12">
         <v>1761</v>
       </c>
@@ -23804,7 +23811,7 @@
       </c>
       <c r="L471" s="9"/>
     </row>
-    <row r="472" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="12">
         <v>1762</v>
       </c>
@@ -23838,7 +23845,7 @@
       </c>
       <c r="L472" s="9"/>
     </row>
-    <row r="473" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="12">
         <v>1763</v>
       </c>
@@ -23872,7 +23879,7 @@
       </c>
       <c r="L473" s="9"/>
     </row>
-    <row r="474" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="12">
         <v>1764</v>
       </c>
@@ -23906,7 +23913,7 @@
       </c>
       <c r="L474" s="9"/>
     </row>
-    <row r="475" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="12">
         <v>1765</v>
       </c>
@@ -23940,7 +23947,7 @@
       </c>
       <c r="L475" s="9"/>
     </row>
-    <row r="476" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="12">
         <v>1766</v>
       </c>
@@ -23974,7 +23981,7 @@
       </c>
       <c r="L476" s="9"/>
     </row>
-    <row r="477" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="12">
         <v>1767</v>
       </c>
@@ -24008,7 +24015,7 @@
       </c>
       <c r="L477" s="9"/>
     </row>
-    <row r="478" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="12">
         <v>1768</v>
       </c>
@@ -24042,7 +24049,7 @@
       </c>
       <c r="L478" s="9"/>
     </row>
-    <row r="479" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="12">
         <v>1769</v>
       </c>
@@ -24076,7 +24083,7 @@
       </c>
       <c r="L479" s="9"/>
     </row>
-    <row r="480" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="12">
         <v>1770</v>
       </c>
@@ -24110,7 +24117,7 @@
       </c>
       <c r="L480" s="9"/>
     </row>
-    <row r="481" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="12">
         <v>1771</v>
       </c>
@@ -24144,7 +24151,7 @@
       </c>
       <c r="L481" s="9"/>
     </row>
-    <row r="482" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="12">
         <v>1772</v>
       </c>
@@ -24178,7 +24185,7 @@
       </c>
       <c r="L482" s="9"/>
     </row>
-    <row r="483" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="12">
         <v>1773</v>
       </c>
@@ -24212,7 +24219,7 @@
       </c>
       <c r="L483" s="9"/>
     </row>
-    <row r="484" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="12">
         <v>1774</v>
       </c>
@@ -24246,7 +24253,7 @@
       </c>
       <c r="L484" s="9"/>
     </row>
-    <row r="485" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="12">
         <v>1775</v>
       </c>
@@ -24280,7 +24287,7 @@
       </c>
       <c r="L485" s="9"/>
     </row>
-    <row r="486" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="12">
         <v>1776</v>
       </c>
@@ -24314,7 +24321,7 @@
       </c>
       <c r="L486" s="9"/>
     </row>
-    <row r="487" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="12">
         <v>1777</v>
       </c>
@@ -24348,7 +24355,7 @@
       </c>
       <c r="L487" s="9"/>
     </row>
-    <row r="488" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="12">
         <v>1778</v>
       </c>
@@ -24382,7 +24389,7 @@
       </c>
       <c r="L488" s="9"/>
     </row>
-    <row r="489" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="12">
         <v>1779</v>
       </c>
@@ -24416,7 +24423,7 @@
       </c>
       <c r="L489" s="9"/>
     </row>
-    <row r="490" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="12">
         <v>1780</v>
       </c>
@@ -24450,7 +24457,7 @@
       </c>
       <c r="L490" s="9"/>
     </row>
-    <row r="491" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="12">
         <v>1781</v>
       </c>
@@ -24484,7 +24491,7 @@
       </c>
       <c r="L491" s="9"/>
     </row>
-    <row r="492" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="12">
         <v>1782</v>
       </c>
@@ -24518,7 +24525,7 @@
       </c>
       <c r="L492" s="9"/>
     </row>
-    <row r="493" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="12">
         <v>1783</v>
       </c>
@@ -24552,7 +24559,7 @@
       </c>
       <c r="L493" s="9"/>
     </row>
-    <row r="494" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="12">
         <v>1784</v>
       </c>
@@ -24586,7 +24593,7 @@
       </c>
       <c r="L494" s="9"/>
     </row>
-    <row r="495" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="12">
         <v>1785</v>
       </c>
@@ -24620,7 +24627,7 @@
       </c>
       <c r="L495" s="9"/>
     </row>
-    <row r="496" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="12">
         <v>1786</v>
       </c>
@@ -24654,7 +24661,7 @@
       </c>
       <c r="L496" s="9"/>
     </row>
-    <row r="497" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="12">
         <v>1787</v>
       </c>
@@ -24688,7 +24695,7 @@
       </c>
       <c r="L497" s="9"/>
     </row>
-    <row r="498" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="12">
         <v>1788</v>
       </c>
@@ -24722,7 +24729,7 @@
       </c>
       <c r="L498" s="9"/>
     </row>
-    <row r="499" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="12">
         <v>1789</v>
       </c>
@@ -24756,7 +24763,7 @@
       </c>
       <c r="L499" s="9"/>
     </row>
-    <row r="500" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="12">
         <v>1790</v>
       </c>
@@ -24790,7 +24797,7 @@
       </c>
       <c r="L500" s="9"/>
     </row>
-    <row r="501" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="12">
         <v>1791</v>
       </c>
@@ -24818,7 +24825,7 @@
       <c r="K501" s="15"/>
       <c r="L501" s="9"/>
     </row>
-    <row r="502" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="12">
         <v>1792</v>
       </c>
@@ -24846,7 +24853,7 @@
       <c r="K502" s="15"/>
       <c r="L502" s="9"/>
     </row>
-    <row r="503" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="12">
         <v>1793</v>
       </c>
@@ -24874,7 +24881,7 @@
       <c r="K503" s="15"/>
       <c r="L503" s="9"/>
     </row>
-    <row r="504" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="12">
         <v>1794</v>
       </c>
@@ -24902,7 +24909,7 @@
       <c r="K504" s="15"/>
       <c r="L504" s="9"/>
     </row>
-    <row r="505" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="12">
         <v>1795</v>
       </c>
@@ -24930,7 +24937,7 @@
       <c r="K505" s="15"/>
       <c r="L505" s="9"/>
     </row>
-    <row r="506" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="12">
         <v>1796</v>
       </c>
@@ -24958,7 +24965,7 @@
       <c r="K506" s="15"/>
       <c r="L506" s="9"/>
     </row>
-    <row r="507" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="12">
         <v>1797</v>
       </c>
@@ -24986,7 +24993,7 @@
       <c r="K507" s="15"/>
       <c r="L507" s="9"/>
     </row>
-    <row r="508" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="12">
         <v>1798</v>
       </c>
@@ -25014,7 +25021,7 @@
       <c r="K508" s="15"/>
       <c r="L508" s="9"/>
     </row>
-    <row r="509" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="12">
         <v>1799</v>
       </c>
@@ -25042,7 +25049,7 @@
       <c r="K509" s="15"/>
       <c r="L509" s="9"/>
     </row>
-    <row r="510" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" s="12">
         <v>1800</v>
       </c>
@@ -25074,7 +25081,7 @@
       <c r="K510" s="15"/>
       <c r="L510" s="9"/>
     </row>
-    <row r="511" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="12">
         <v>1801</v>
       </c>
@@ -25110,7 +25117,7 @@
       </c>
       <c r="L511" s="9"/>
     </row>
-    <row r="512" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="12">
         <v>1802</v>
       </c>
@@ -25146,7 +25153,7 @@
       </c>
       <c r="L512" s="9"/>
     </row>
-    <row r="513" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="12">
         <v>1803</v>
       </c>
@@ -25182,7 +25189,7 @@
       </c>
       <c r="L513" s="9"/>
     </row>
-    <row r="514" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="12">
         <v>1804</v>
       </c>
@@ -25218,7 +25225,7 @@
       </c>
       <c r="L514" s="9"/>
     </row>
-    <row r="515" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="12">
         <v>1805</v>
       </c>
@@ -25246,7 +25253,7 @@
       <c r="K515" s="15"/>
       <c r="L515" s="9"/>
     </row>
-    <row r="516" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="12">
         <v>1806</v>
       </c>
@@ -25282,7 +25289,7 @@
       </c>
       <c r="L516" s="9"/>
     </row>
-    <row r="517" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="12">
         <v>1807</v>
       </c>
@@ -25318,7 +25325,7 @@
       </c>
       <c r="L517" s="9"/>
     </row>
-    <row r="518" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="12">
         <v>1808</v>
       </c>
@@ -25354,7 +25361,7 @@
       </c>
       <c r="L518" s="9"/>
     </row>
-    <row r="519" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="12">
         <v>1809</v>
       </c>
@@ -25388,7 +25395,7 @@
       </c>
       <c r="L519" s="9"/>
     </row>
-    <row r="520" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="12">
         <v>1810</v>
       </c>
@@ -25424,7 +25431,7 @@
       </c>
       <c r="L520" s="9"/>
     </row>
-    <row r="521" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="12">
         <v>1811</v>
       </c>
@@ -25460,7 +25467,7 @@
       </c>
       <c r="L521" s="9"/>
     </row>
-    <row r="522" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="12">
         <v>1812</v>
       </c>
@@ -25496,7 +25503,7 @@
       </c>
       <c r="L522" s="9"/>
     </row>
-    <row r="523" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="12">
         <v>1813</v>
       </c>
@@ -25532,7 +25539,7 @@
       </c>
       <c r="L523" s="9"/>
     </row>
-    <row r="524" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="12">
         <v>1814</v>
       </c>
@@ -25560,7 +25567,7 @@
       <c r="K524" s="15"/>
       <c r="L524" s="9"/>
     </row>
-    <row r="525" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="12">
         <v>1815</v>
       </c>
@@ -25596,7 +25603,7 @@
       </c>
       <c r="L525" s="9"/>
     </row>
-    <row r="526" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="12">
         <v>1816</v>
       </c>
@@ -25630,7 +25637,7 @@
       </c>
       <c r="L526" s="9"/>
     </row>
-    <row r="527" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="12">
         <v>1817</v>
       </c>
@@ -25658,7 +25665,7 @@
       <c r="K527" s="15"/>
       <c r="L527" s="9"/>
     </row>
-    <row r="528" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="12">
         <v>1818</v>
       </c>
@@ -25686,7 +25693,7 @@
       <c r="K528" s="15"/>
       <c r="L528" s="9"/>
     </row>
-    <row r="529" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="12">
         <v>1819</v>
       </c>
@@ -25720,7 +25727,7 @@
       </c>
       <c r="L529" s="9"/>
     </row>
-    <row r="530" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="12">
         <v>1820</v>
       </c>
@@ -25754,7 +25761,7 @@
       </c>
       <c r="L530" s="9"/>
     </row>
-    <row r="531" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="12">
         <v>1821</v>
       </c>
@@ -25782,7 +25789,7 @@
       <c r="K531" s="15"/>
       <c r="L531" s="9"/>
     </row>
-    <row r="532" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="12">
         <v>1822</v>
       </c>
@@ -25818,7 +25825,7 @@
       </c>
       <c r="L532" s="9"/>
     </row>
-    <row r="533" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" s="12">
         <v>1823</v>
       </c>
@@ -25854,7 +25861,7 @@
       </c>
       <c r="L533" s="9"/>
     </row>
-    <row r="534" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="12">
         <v>1824</v>
       </c>
@@ -25890,7 +25897,7 @@
       </c>
       <c r="L534" s="9"/>
     </row>
-    <row r="535" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="12">
         <v>1825</v>
       </c>
@@ -25926,7 +25933,7 @@
       </c>
       <c r="L535" s="9"/>
     </row>
-    <row r="536" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" s="12">
         <v>1826</v>
       </c>
@@ -25962,7 +25969,7 @@
       </c>
       <c r="L536" s="9"/>
     </row>
-    <row r="537" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="12">
         <v>1827</v>
       </c>
@@ -25998,7 +26005,7 @@
       </c>
       <c r="L537" s="9"/>
     </row>
-    <row r="538" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" s="12">
         <v>1828</v>
       </c>
@@ -26062,7 +26069,7 @@
       <c r="K539" s="15"/>
       <c r="L539" s="9"/>
     </row>
-    <row r="540" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A540" s="12">
         <v>1830</v>
       </c>
@@ -26090,7 +26097,7 @@
       <c r="K540" s="15"/>
       <c r="L540" s="9"/>
     </row>
-    <row r="541" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" s="12">
         <v>1831</v>
       </c>
@@ -26124,7 +26131,7 @@
       </c>
       <c r="L541" s="9"/>
     </row>
-    <row r="542" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="12">
         <v>1832</v>
       </c>
@@ -26160,7 +26167,7 @@
       </c>
       <c r="L542" s="9"/>
     </row>
-    <row r="543" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="12">
         <v>1833</v>
       </c>
@@ -26188,7 +26195,7 @@
       <c r="K543" s="15"/>
       <c r="L543" s="9"/>
     </row>
-    <row r="544" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="12">
         <v>1834</v>
       </c>
@@ -26216,7 +26223,7 @@
       <c r="K544" s="15"/>
       <c r="L544" s="9"/>
     </row>
-    <row r="545" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="12">
         <v>1835</v>
       </c>
@@ -26248,7 +26255,7 @@
       <c r="K545" s="15"/>
       <c r="L545" s="9"/>
     </row>
-    <row r="546" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="12">
         <v>1836</v>
       </c>
@@ -26282,7 +26289,7 @@
       </c>
       <c r="L546" s="9"/>
     </row>
-    <row r="547" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="12">
         <v>1837</v>
       </c>
@@ -26310,7 +26317,7 @@
       <c r="K547" s="15"/>
       <c r="L547" s="9"/>
     </row>
-    <row r="548" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="12">
         <v>1838</v>
       </c>
@@ -26344,7 +26351,7 @@
       </c>
       <c r="L548" s="9"/>
     </row>
-    <row r="549" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="12">
         <v>1839</v>
       </c>
@@ -26378,7 +26385,7 @@
       </c>
       <c r="L549" s="9"/>
     </row>
-    <row r="550" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="12">
         <v>1840</v>
       </c>
@@ -26406,7 +26413,7 @@
       <c r="K550" s="15"/>
       <c r="L550" s="9"/>
     </row>
-    <row r="551" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="12">
         <v>1841</v>
       </c>
@@ -26434,7 +26441,7 @@
       <c r="K551" s="15"/>
       <c r="L551" s="9"/>
     </row>
-    <row r="552" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="12">
         <v>1842</v>
       </c>
@@ -26462,7 +26469,7 @@
       <c r="K552" s="15"/>
       <c r="L552" s="9"/>
     </row>
-    <row r="553" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="12">
         <v>1843</v>
       </c>
@@ -26490,7 +26497,7 @@
       <c r="K553" s="15"/>
       <c r="L553" s="9"/>
     </row>
-    <row r="554" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="12">
         <v>1844</v>
       </c>
@@ -26518,7 +26525,7 @@
       <c r="K554" s="15"/>
       <c r="L554" s="9"/>
     </row>
-    <row r="555" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="12">
         <v>1845</v>
       </c>
@@ -26546,7 +26553,7 @@
       <c r="K555" s="15"/>
       <c r="L555" s="9"/>
     </row>
-    <row r="556" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="12">
         <v>1846</v>
       </c>
@@ -26574,7 +26581,7 @@
       <c r="K556" s="15"/>
       <c r="L556" s="9"/>
     </row>
-    <row r="557" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="12">
         <v>1847</v>
       </c>
@@ -26602,7 +26609,7 @@
       <c r="K557" s="15"/>
       <c r="L557" s="9"/>
     </row>
-    <row r="558" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="12">
         <v>1848</v>
       </c>
@@ -26636,7 +26643,7 @@
       </c>
       <c r="L558" s="9"/>
     </row>
-    <row r="559" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="12">
         <v>1849</v>
       </c>
@@ -26664,7 +26671,7 @@
       <c r="K559" s="15"/>
       <c r="L559" s="9"/>
     </row>
-    <row r="560" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="12">
         <v>1850</v>
       </c>
@@ -26700,7 +26707,7 @@
       </c>
       <c r="L560" s="9"/>
     </row>
-    <row r="561" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="12">
         <v>1851</v>
       </c>
@@ -26734,7 +26741,7 @@
       </c>
       <c r="L561" s="9"/>
     </row>
-    <row r="562" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="12">
         <v>1852</v>
       </c>
@@ -26762,7 +26769,7 @@
       <c r="K562" s="15"/>
       <c r="L562" s="9"/>
     </row>
-    <row r="563" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="12">
         <v>1853</v>
       </c>
@@ -26796,7 +26803,7 @@
       </c>
       <c r="L563" s="9"/>
     </row>
-    <row r="564" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="12">
         <v>1854</v>
       </c>
@@ -26832,7 +26839,7 @@
       </c>
       <c r="L564" s="9"/>
     </row>
-    <row r="565" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="12">
         <v>1855</v>
       </c>
@@ -26866,7 +26873,7 @@
       </c>
       <c r="L565" s="9"/>
     </row>
-    <row r="566" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="12">
         <v>1856</v>
       </c>
@@ -26902,7 +26909,7 @@
       </c>
       <c r="L566" s="9"/>
     </row>
-    <row r="567" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="12">
         <v>1857</v>
       </c>
@@ -26930,7 +26937,7 @@
       <c r="K567" s="15"/>
       <c r="L567" s="9"/>
     </row>
-    <row r="568" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" s="12">
         <v>1858</v>
       </c>
@@ -26966,7 +26973,7 @@
       </c>
       <c r="L568" s="9"/>
     </row>
-    <row r="569" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="12">
         <v>1859</v>
       </c>
@@ -27000,7 +27007,7 @@
       </c>
       <c r="L569" s="9"/>
     </row>
-    <row r="570" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="12">
         <v>1860</v>
       </c>
@@ -27036,7 +27043,7 @@
       </c>
       <c r="L570" s="9"/>
     </row>
-    <row r="571" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="12">
         <v>1861</v>
       </c>
@@ -27070,7 +27077,7 @@
       </c>
       <c r="L571" s="9"/>
     </row>
-    <row r="572" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="12">
         <v>1862</v>
       </c>
@@ -27098,7 +27105,7 @@
       <c r="K572" s="15"/>
       <c r="L572" s="9"/>
     </row>
-    <row r="573" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="12">
         <v>1863</v>
       </c>
@@ -27132,7 +27139,7 @@
       </c>
       <c r="L573" s="9"/>
     </row>
-    <row r="574" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="12">
         <v>1864</v>
       </c>
@@ -27166,7 +27173,7 @@
       </c>
       <c r="L574" s="9"/>
     </row>
-    <row r="575" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="12">
         <v>1865</v>
       </c>
@@ -27200,7 +27207,7 @@
       </c>
       <c r="L575" s="9"/>
     </row>
-    <row r="576" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" s="12">
         <v>1866</v>
       </c>
@@ -27234,7 +27241,7 @@
       </c>
       <c r="L576" s="9"/>
     </row>
-    <row r="577" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A577" s="12">
         <v>1867</v>
       </c>
@@ -27268,7 +27275,7 @@
       </c>
       <c r="L577" s="9"/>
     </row>
-    <row r="578" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A578" s="12">
         <v>1868</v>
       </c>
@@ -27302,7 +27309,7 @@
       </c>
       <c r="L578" s="9"/>
     </row>
-    <row r="579" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="12">
         <v>1869</v>
       </c>
@@ -27336,7 +27343,7 @@
       </c>
       <c r="L579" s="9"/>
     </row>
-    <row r="580" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="12">
         <v>1870</v>
       </c>
@@ -27370,7 +27377,7 @@
       </c>
       <c r="L580" s="9"/>
     </row>
-    <row r="581" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="12">
         <v>1871</v>
       </c>
@@ -27404,7 +27411,7 @@
       <c r="K581" s="15"/>
       <c r="L581" s="9"/>
     </row>
-    <row r="582" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="12">
         <v>1872</v>
       </c>
@@ -27436,7 +27443,7 @@
       <c r="K582" s="15"/>
       <c r="L582" s="9"/>
     </row>
-    <row r="583" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="12">
         <v>1873</v>
       </c>
@@ -27464,7 +27471,7 @@
       <c r="K583" s="15"/>
       <c r="L583" s="9"/>
     </row>
-    <row r="584" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" s="12">
         <v>1874</v>
       </c>
@@ -27492,7 +27499,7 @@
       <c r="K584" s="15"/>
       <c r="L584" s="9"/>
     </row>
-    <row r="585" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="12">
         <v>1875</v>
       </c>
@@ -27520,7 +27527,7 @@
       <c r="K585" s="15"/>
       <c r="L585" s="9"/>
     </row>
-    <row r="586" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="12">
         <v>1876</v>
       </c>
@@ -27548,7 +27555,7 @@
       <c r="K586" s="15"/>
       <c r="L586" s="9"/>
     </row>
-    <row r="587" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="12">
         <v>1877</v>
       </c>
@@ -27576,7 +27583,7 @@
       <c r="K587" s="15"/>
       <c r="L587" s="9"/>
     </row>
-    <row r="588" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="12">
         <v>1878</v>
       </c>
@@ -27610,7 +27617,7 @@
       </c>
       <c r="L588" s="9"/>
     </row>
-    <row r="589" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="12">
         <v>1879</v>
       </c>
@@ -27644,7 +27651,7 @@
       </c>
       <c r="L589" s="9"/>
     </row>
-    <row r="590" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="12">
         <v>1880</v>
       </c>
@@ -27672,7 +27679,7 @@
       <c r="K590" s="15"/>
       <c r="L590" s="9"/>
     </row>
-    <row r="591" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="12">
         <v>1881</v>
       </c>
@@ -27700,7 +27707,7 @@
       <c r="K591" s="15"/>
       <c r="L591" s="9"/>
     </row>
-    <row r="592" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="12">
         <v>1882</v>
       </c>
@@ -27728,7 +27735,7 @@
       <c r="K592" s="15"/>
       <c r="L592" s="9"/>
     </row>
-    <row r="593" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="12">
         <v>1883</v>
       </c>
@@ -27766,7 +27773,9 @@
       <c r="A594" s="12">
         <v>1884</v>
       </c>
-      <c r="B594" s="12"/>
+      <c r="B594" s="12" t="s">
+        <v>2357</v>
+      </c>
       <c r="C594" s="13" t="s">
         <v>1173</v>
       </c>
@@ -27785,12 +27794,18 @@
       <c r="H594" s="14" t="s">
         <v>2330</v>
       </c>
-      <c r="I594" s="14"/>
-      <c r="J594" s="14"/>
-      <c r="K594" s="15"/>
+      <c r="I594" s="16" t="s">
+        <v>2359</v>
+      </c>
+      <c r="J594" s="16" t="s">
+        <v>2360</v>
+      </c>
+      <c r="K594" s="11" t="s">
+        <v>2313</v>
+      </c>
       <c r="L594" s="9"/>
     </row>
-    <row r="595" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="12">
         <v>1885</v>
       </c>
@@ -27824,7 +27839,7 @@
       </c>
       <c r="L595" s="9"/>
     </row>
-    <row r="596" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A596" s="12">
         <v>1886</v>
       </c>
@@ -27858,7 +27873,7 @@
       </c>
       <c r="L596" s="9"/>
     </row>
-    <row r="597" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="12">
         <v>1887</v>
       </c>
@@ -27892,7 +27907,7 @@
       </c>
       <c r="L597" s="9"/>
     </row>
-    <row r="598" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A598" s="12">
         <v>1888</v>
       </c>
@@ -27926,7 +27941,7 @@
       </c>
       <c r="L598" s="9"/>
     </row>
-    <row r="599" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="12">
         <v>1889</v>
       </c>
@@ -27960,7 +27975,7 @@
       </c>
       <c r="L599" s="9"/>
     </row>
-    <row r="600" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A600" s="12">
         <v>1890</v>
       </c>
@@ -27994,7 +28009,7 @@
       </c>
       <c r="L600" s="9"/>
     </row>
-    <row r="601" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="12">
         <v>1891</v>
       </c>
@@ -28022,7 +28037,7 @@
       <c r="K601" s="15"/>
       <c r="L601" s="9"/>
     </row>
-    <row r="602" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="12">
         <v>1892</v>
       </c>
@@ -28050,7 +28065,7 @@
       <c r="K602" s="15"/>
       <c r="L602" s="9"/>
     </row>
-    <row r="603" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="12">
         <v>1893</v>
       </c>
@@ -28078,7 +28093,7 @@
       <c r="K603" s="15"/>
       <c r="L603" s="9"/>
     </row>
-    <row r="604" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="12">
         <v>1894</v>
       </c>
@@ -28112,7 +28127,7 @@
       </c>
       <c r="L604" s="9"/>
     </row>
-    <row r="605" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="12">
         <v>1895</v>
       </c>
@@ -28146,7 +28161,7 @@
       </c>
       <c r="L605" s="9"/>
     </row>
-    <row r="606" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="12">
         <v>1896</v>
       </c>
@@ -28180,7 +28195,7 @@
       </c>
       <c r="L606" s="9"/>
     </row>
-    <row r="607" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="12">
         <v>1897</v>
       </c>
@@ -28214,7 +28229,7 @@
       </c>
       <c r="L607" s="9"/>
     </row>
-    <row r="608" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" s="12">
         <v>1898</v>
       </c>
@@ -28248,7 +28263,7 @@
       </c>
       <c r="L608" s="9"/>
     </row>
-    <row r="609" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A609" s="12">
         <v>1899</v>
       </c>
@@ -28282,7 +28297,7 @@
       </c>
       <c r="L609" s="9"/>
     </row>
-    <row r="610" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="12">
         <v>1900</v>
       </c>
@@ -28316,7 +28331,7 @@
       </c>
       <c r="L610" s="9"/>
     </row>
-    <row r="611" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="12">
         <v>1901</v>
       </c>
@@ -28344,7 +28359,7 @@
       <c r="K611" s="15"/>
       <c r="L611" s="9"/>
     </row>
-    <row r="612" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" s="12">
         <v>1902</v>
       </c>
@@ -28372,7 +28387,7 @@
       <c r="K612" s="15"/>
       <c r="L612" s="9"/>
     </row>
-    <row r="613" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A613" s="12">
         <v>1903</v>
       </c>
@@ -28404,7 +28419,7 @@
       <c r="K613" s="15"/>
       <c r="L613" s="9"/>
     </row>
-    <row r="614" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" s="12">
         <v>1904</v>
       </c>
@@ -28436,7 +28451,7 @@
       <c r="K614" s="15"/>
       <c r="L614" s="9"/>
     </row>
-    <row r="615" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="12">
         <v>1905</v>
       </c>
@@ -28464,7 +28479,7 @@
       <c r="K615" s="15"/>
       <c r="L615" s="9"/>
     </row>
-    <row r="616" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A616" s="12">
         <v>1906</v>
       </c>
@@ -28492,7 +28507,7 @@
       <c r="K616" s="15"/>
       <c r="L616" s="9"/>
     </row>
-    <row r="617" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="12">
         <v>1907</v>
       </c>
@@ -28520,7 +28535,7 @@
       <c r="K617" s="15"/>
       <c r="L617" s="9"/>
     </row>
-    <row r="618" spans="1:12" s="5" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:12" s="5" customFormat="1" ht="28.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="12">
         <v>1908</v>
       </c>
@@ -28549,6 +28564,15 @@
       <c r="L618" s="9"/>
     </row>
   </sheetData>
+  <autoFilter ref="C1:C618">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="BS-MICB-FA19-9002"/>
+        <filter val="M.Phil-INR-S21-9002"/>
+        <filter val="MS-CPSY-FA21-9002"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:K618">
     <sortCondition ref="A2:A618"/>
   </sortState>
